--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_seaice.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_seaice.xlsx
@@ -8,18 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Key Properties" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Grid" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Dynamics" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Thermodynamics" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Radiative Processes" sheetId="6" r:id="rId6"/>
+    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="4. Dynamics" sheetId="5" r:id="rId5"/>
+    <sheet name="5. Thermodynamics" sheetId="6" r:id="rId6"/>
+    <sheet name="6. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="591">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -51,19 +52,28 @@
     <t>Sub-Topics</t>
   </si>
   <si>
-    <t>1. Key Properties</t>
-  </si>
-  <si>
-    <t>2. Grid</t>
-  </si>
-  <si>
-    <t>3. Dynamics</t>
-  </si>
-  <si>
-    <t>4. Thermodynamics</t>
-  </si>
-  <si>
-    <t>5. Radiative Processes</t>
+    <t>1. Parties &amp; Citations</t>
+  </si>
+  <si>
+    <t>2. Key Properties</t>
+  </si>
+  <si>
+    <t>3. Grid</t>
+  </si>
+  <si>
+    <t>4. Dynamics</t>
+  </si>
+  <si>
+    <t>5. Thermodynamics</t>
+  </si>
+  <si>
+    <t>6. Radiative Processes</t>
+  </si>
+  <si>
+    <t>How To Use</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-document-spreadsheets</t>
   </si>
   <si>
     <t>Further Info</t>
@@ -78,24 +88,51 @@
     <t>1.0.2</t>
   </si>
   <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Parties &amp; Citations</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>Parties</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>Mnemonic references to responsible parties</t>
+  </si>
+  <si>
+    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Mnemonic references to citations</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>Key Properties</t>
   </si>
   <si>
     <t>Sea Ice key properties</t>
   </si>
   <si>
-    <t>1.1.1 *</t>
+    <t>2.1.1 *</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>Name of seaice model code</t>
   </si>
   <si>
@@ -105,7 +142,7 @@
     <t>NEMO /Louvain La Neuve Sea Ice Model version 2</t>
   </si>
   <si>
-    <t>1.1.2 *</t>
+    <t>2.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -120,7 +157,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>1.1.3 *</t>
+    <t>2.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -138,7 +175,7 @@
     <t>LIM2 (Louvain-la-Neuve Sea Ice Model, Version 2) is a two-level thermodynamic-dynamic sea ice model (Fichefet and Morales Maqueda, 1997, 1999). Sensible heat storage and vertical heat conduction within snow and ice are determined by a three-layer model. The storage of latent heat inside the ice resulting from the trapping of shortwave radiation by brine pockets is taken into account. The surface albedo is parametrized as a function of the surface temperature and the snow and ice thicknesses. Vertical and lateral growth/decay rates of the ice are obtained from prognostic energy budgets at both the bottom and surface boundaries of the snow-ice cover and in leads. For the momentum balance, sea ice is considered as a two-dimensional continuum in dynamical interaction with atmosphere and ocean. The viscous-plastic constitutive law proposed by Hibler (1979) is used for computing the internal ice force. The ice strength is taken as a function of the ice thickness and compactness. The physical fields that are advected are the ice concentration, the snow and ice volume and enthalpy, and the brine reservoir. The sea ice and ocean models have the same horizontal grid.</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Variables</t>
@@ -147,7 +184,7 @@
     <t>List of prognostic variable in the sea ice model.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1 </t>
+    <t xml:space="preserve">2.2.1 </t>
   </si>
   <si>
     <t>Overview of list of prognostic variable in the sea ice model. in seaice model.</t>
@@ -156,7 +193,7 @@
     <t>cmip6.seaice.key_properties.variables.overview</t>
   </si>
   <si>
-    <t>1.2.2 *</t>
+    <t>2.2.2 *</t>
   </si>
   <si>
     <t>Prognostic</t>
@@ -171,9 +208,6 @@
     <t>cmip6.seaice.key_properties.variables.prognostic</t>
   </si>
   <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
     <t>Other: sea ice [thickness, concentration, velocity, temperature, heat content], snow thickness, snow temperature</t>
   </si>
   <si>
@@ -213,7 +247,7 @@
     <t>Other: document to the right</t>
   </si>
   <si>
-    <t>1.3</t>
+    <t>2.3</t>
   </si>
   <si>
     <t>Key Properties --&gt; Seawater Properties</t>
@@ -222,7 +256,7 @@
     <t>Properties of seawater relevant to sea ice</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.1 </t>
+    <t xml:space="preserve">2.3.1 </t>
   </si>
   <si>
     <t>Overview of properties of seawater relevant to sea ice in seaice model.</t>
@@ -231,7 +265,7 @@
     <t>cmip6.seaice.key_properties.seawater_properties.overview</t>
   </si>
   <si>
-    <t>1.3.2 *</t>
+    <t>2.3.2 *</t>
   </si>
   <si>
     <t>Ocean Freezing Point</t>
@@ -249,7 +283,7 @@
     <t>Constant</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.3 </t>
+    <t xml:space="preserve">2.3.3 </t>
   </si>
   <si>
     <t>Ocean Freezing Point Value</t>
@@ -264,7 +298,7 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point_value</t>
   </si>
   <si>
-    <t>1.4</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>Key Properties --&gt; Resolution</t>
@@ -273,7 +307,7 @@
     <t>Resolution of the sea ice grid</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.1 </t>
+    <t xml:space="preserve">2.4.1 </t>
   </si>
   <si>
     <t>Overview of resolution of the sea ice grid in seaice model.</t>
@@ -282,7 +316,7 @@
     <t>cmip6.seaice.key_properties.resolution.overview</t>
   </si>
   <si>
-    <t>1.4.2 *</t>
+    <t>2.4.2 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid e.g. N512L180, T512L70, ORCA025 etc.</t>
@@ -291,7 +325,7 @@
     <t>cmip6.seaice.key_properties.resolution.name</t>
   </si>
   <si>
-    <t>1.4.3 *</t>
+    <t>2.4.3 *</t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -303,7 +337,7 @@
     <t>cmip6.seaice.key_properties.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t>1.4.4 *</t>
+    <t>2.4.4 *</t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -318,7 +352,7 @@
     <t>cmip6.seaice.key_properties.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t>1.5</t>
+    <t>2.5</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -327,7 +361,7 @@
     <t>Tuning applied to sea ice model component</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.1 </t>
+    <t xml:space="preserve">2.5.1 </t>
   </si>
   <si>
     <t>Overview of tuning applied to sea ice model component in seaice model.</t>
@@ -336,7 +370,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.overview</t>
   </si>
   <si>
-    <t>1.5.2 *</t>
+    <t>2.5.2 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -348,7 +382,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t>1.5.3 *</t>
+    <t>2.5.3 *</t>
   </si>
   <si>
     <t>Target</t>
@@ -360,7 +394,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.target</t>
   </si>
   <si>
-    <t>1.5.4 *</t>
+    <t>2.5.4 *</t>
   </si>
   <si>
     <t>Simulations</t>
@@ -372,7 +406,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.simulations</t>
   </si>
   <si>
-    <t>1.5.5 *</t>
+    <t>2.5.5 *</t>
   </si>
   <si>
     <t>Metrics Used</t>
@@ -384,7 +418,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.6 </t>
+    <t xml:space="preserve">2.5.6 </t>
   </si>
   <si>
     <t>Variables</t>
@@ -396,7 +430,7 @@
     <t>cmip6.seaice.key_properties.tuning_applied.variables</t>
   </si>
   <si>
-    <t>1.6</t>
+    <t>2.6</t>
   </si>
   <si>
     <t>Key Properties --&gt; Key Parameter Values</t>
@@ -405,7 +439,7 @@
     <t>Values of key parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.1 </t>
+    <t xml:space="preserve">2.6.1 </t>
   </si>
   <si>
     <t>Overview of values of key parameters in seaice model.</t>
@@ -414,7 +448,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.2 </t>
+    <t xml:space="preserve">2.6.2 </t>
   </si>
   <si>
     <t>Ice Strength</t>
@@ -426,7 +460,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.ice_strength</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.3 </t>
+    <t xml:space="preserve">2.6.3 </t>
   </si>
   <si>
     <t>Snow Conductivity</t>
@@ -438,7 +472,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.snow_conductivity</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.4 </t>
+    <t xml:space="preserve">2.6.4 </t>
   </si>
   <si>
     <t>Ice Thickness In Leads</t>
@@ -450,7 +484,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.ice_thickness_in_leads</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.5 </t>
+    <t xml:space="preserve">2.6.5 </t>
   </si>
   <si>
     <t>Additional Parameters</t>
@@ -462,7 +496,7 @@
     <t>cmip6.seaice.key_properties.key_parameter_values.additional_parameters</t>
   </si>
   <si>
-    <t>1.7</t>
+    <t>2.7</t>
   </si>
   <si>
     <t>Key Properties --&gt; Assumptions</t>
@@ -471,7 +505,7 @@
     <t>Assumptions made in the sea ice model</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7.1 </t>
+    <t xml:space="preserve">2.7.1 </t>
   </si>
   <si>
     <t>Overview of assumptions made in the sea ice model in seaice model.</t>
@@ -480,7 +514,7 @@
     <t>cmip6.seaice.key_properties.assumptions.overview</t>
   </si>
   <si>
-    <t>1.7.2 *</t>
+    <t>2.7.2 *</t>
   </si>
   <si>
     <t>General overview description of any *key* assumptions made in this model.</t>
@@ -489,7 +523,7 @@
     <t>cmip6.seaice.key_properties.assumptions.description</t>
   </si>
   <si>
-    <t>1.7.3 *</t>
+    <t>2.7.3 *</t>
   </si>
   <si>
     <t>On Diagnostic Variables</t>
@@ -501,7 +535,7 @@
     <t>cmip6.seaice.key_properties.assumptions.on_diagnostic_variables</t>
   </si>
   <si>
-    <t>1.7.4 *</t>
+    <t>2.7.4 *</t>
   </si>
   <si>
     <t>Missing Processes</t>
@@ -513,7 +547,7 @@
     <t>cmip6.seaice.key_properties.assumptions.missing_processes</t>
   </si>
   <si>
-    <t>1.8</t>
+    <t>2.8</t>
   </si>
   <si>
     <t>Key Properties --&gt; Conservation</t>
@@ -522,7 +556,7 @@
     <t>Conservation in the sea ice component</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8.1 </t>
+    <t xml:space="preserve">2.8.1 </t>
   </si>
   <si>
     <t>Overview of conservation in the sea ice component in seaice model.</t>
@@ -531,7 +565,7 @@
     <t>cmip6.seaice.key_properties.conservation.overview</t>
   </si>
   <si>
-    <t>1.8.2 *</t>
+    <t>2.8.2 *</t>
   </si>
   <si>
     <t>Provide a general description of conservation methodology.</t>
@@ -540,7 +574,7 @@
     <t>cmip6.seaice.key_properties.conservation.description</t>
   </si>
   <si>
-    <t>1.8.3 *</t>
+    <t>2.8.3 *</t>
   </si>
   <si>
     <t>Properties</t>
@@ -561,7 +595,7 @@
     <t>Salt</t>
   </si>
   <si>
-    <t>1.8.4 *</t>
+    <t>2.8.4 *</t>
   </si>
   <si>
     <t>Budget</t>
@@ -573,7 +607,7 @@
     <t>cmip6.seaice.key_properties.conservation.budget</t>
   </si>
   <si>
-    <t>1.8.5 *</t>
+    <t>2.8.5 *</t>
   </si>
   <si>
     <t>Was Flux Correction Used</t>
@@ -588,7 +622,7 @@
     <t>cmip6.seaice.key_properties.conservation.was_flux_correction_used</t>
   </si>
   <si>
-    <t>1.8.6 *</t>
+    <t>2.8.6 *</t>
   </si>
   <si>
     <t>Corrected Conserved Prognostic Variables</t>
@@ -600,7 +634,7 @@
     <t>cmip6.seaice.key_properties.conservation.corrected_conserved_prognostic_variables</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t>3.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -609,7 +643,7 @@
     <t>Sea Ice grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.1 </t>
+    <t xml:space="preserve">3.1.1 </t>
   </si>
   <si>
     <t>Name of grid in seaice model.</t>
@@ -618,7 +652,7 @@
     <t>cmip6.seaice.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.2 </t>
+    <t xml:space="preserve">3.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in seaice model.</t>
@@ -627,7 +661,7 @@
     <t>cmip6.seaice.grid.overview</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>3.2</t>
   </si>
   <si>
     <t>Grid --&gt; Discretisation</t>
@@ -636,7 +670,7 @@
     <t>Sea ice discretisation</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">3.2.1 </t>
   </si>
   <si>
     <t>Overview of sea ice discretisation in seaice model.</t>
@@ -645,7 +679,7 @@
     <t>cmip6.seaice.grid.discretisation.overview</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t>3.3</t>
   </si>
   <si>
     <t>Grid --&gt; Discretisation --&gt; Horizontal</t>
@@ -654,7 +688,7 @@
     <t>Sea ice discretisation in the horizontal</t>
   </si>
   <si>
-    <t>2.3.1 *</t>
+    <t>3.3.1 *</t>
   </si>
   <si>
     <t>Grid on which sea ice is horizontal discretised?</t>
@@ -672,7 +706,7 @@
     <t>Own Grid</t>
   </si>
   <si>
-    <t>2.3.2 *</t>
+    <t>3.3.2 *</t>
   </si>
   <si>
     <t>Grid Type</t>
@@ -693,7 +727,7 @@
     <t>Adaptive grid</t>
   </si>
   <si>
-    <t>2.3.3 *</t>
+    <t>3.3.3 *</t>
   </si>
   <si>
     <t>Scheme</t>
@@ -714,7 +748,7 @@
     <t>Finite volumes</t>
   </si>
   <si>
-    <t>2.3.4 *</t>
+    <t>3.3.4 *</t>
   </si>
   <si>
     <t>Thermodynamics Time Step</t>
@@ -726,7 +760,7 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.thermodynamics_time_step</t>
   </si>
   <si>
-    <t>2.3.5 *</t>
+    <t>3.3.5 *</t>
   </si>
   <si>
     <t>Dynamics Time Step</t>
@@ -738,7 +772,7 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.dynamics_time_step</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.6 </t>
+    <t xml:space="preserve">3.3.6 </t>
   </si>
   <si>
     <t>Additional Details</t>
@@ -750,7 +784,7 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.additional_details</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>3.4</t>
   </si>
   <si>
     <t>Grid --&gt; Discretisation --&gt; Vertical</t>
@@ -759,7 +793,7 @@
     <t>Sea ice vertical properties</t>
   </si>
   <si>
-    <t>2.4.1 *</t>
+    <t>3.4.1 *</t>
   </si>
   <si>
     <t>Layering</t>
@@ -780,7 +814,7 @@
     <t>Multi-layers</t>
   </si>
   <si>
-    <t>2.4.2 *</t>
+    <t>3.4.2 *</t>
   </si>
   <si>
     <t>Number Of Layers</t>
@@ -792,7 +826,7 @@
     <t>cmip6.seaice.grid.discretisation.vertical.number_of_layers</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.3 </t>
+    <t xml:space="preserve">3.4.3 </t>
   </si>
   <si>
     <t>Specify any additional vertical grid details.</t>
@@ -801,7 +835,7 @@
     <t>cmip6.seaice.grid.discretisation.vertical.additional_details</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>3.5</t>
   </si>
   <si>
     <t>Grid --&gt; Seaice Categories</t>
@@ -810,7 +844,7 @@
     <t>What method is used to represent sea ice categories ?</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.1 </t>
+    <t xml:space="preserve">3.5.1 </t>
   </si>
   <si>
     <t>Overview of what method is used to represent sea ice categories ? in seaice model.</t>
@@ -819,7 +853,7 @@
     <t>cmip6.seaice.grid.seaice_categories.overview</t>
   </si>
   <si>
-    <t>2.5.2 *</t>
+    <t>3.5.2 *</t>
   </si>
   <si>
     <t>Has Mulitple Categories</t>
@@ -831,7 +865,7 @@
     <t>cmip6.seaice.grid.seaice_categories.has_mulitple_categories</t>
   </si>
   <si>
-    <t>2.5.3 *</t>
+    <t>3.5.3 *</t>
   </si>
   <si>
     <t>Number Of Categories</t>
@@ -843,7 +877,7 @@
     <t>cmip6.seaice.grid.seaice_categories.number_of_categories</t>
   </si>
   <si>
-    <t>2.5.4 *</t>
+    <t>3.5.4 *</t>
   </si>
   <si>
     <t>Category Limits</t>
@@ -855,7 +889,7 @@
     <t>cmip6.seaice.grid.seaice_categories.category_limits</t>
   </si>
   <si>
-    <t>2.5.5 *</t>
+    <t>3.5.5 *</t>
   </si>
   <si>
     <t>Ice Thickness Distribution Scheme</t>
@@ -867,7 +901,7 @@
     <t>cmip6.seaice.grid.seaice_categories.ice_thickness_distribution_scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.6 </t>
+    <t xml:space="preserve">3.5.6 </t>
   </si>
   <si>
     <t>Other</t>
@@ -879,7 +913,7 @@
     <t>cmip6.seaice.grid.seaice_categories.other</t>
   </si>
   <si>
-    <t>2.6</t>
+    <t>3.6</t>
   </si>
   <si>
     <t>Grid --&gt; Snow On Seaice</t>
@@ -888,7 +922,7 @@
     <t>Snow on sea ice details</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.1 </t>
+    <t xml:space="preserve">3.6.1 </t>
   </si>
   <si>
     <t>Overview of snow on sea ice details in seaice model.</t>
@@ -897,7 +931,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.overview</t>
   </si>
   <si>
-    <t>2.6.2 *</t>
+    <t>3.6.2 *</t>
   </si>
   <si>
     <t>Has Snow On Ice</t>
@@ -909,7 +943,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.has_snow_on_ice</t>
   </si>
   <si>
-    <t>2.6.3 *</t>
+    <t>3.6.3 *</t>
   </si>
   <si>
     <t>Number Of Snow Levels</t>
@@ -921,7 +955,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.number_of_snow_levels</t>
   </si>
   <si>
-    <t>2.6.4 *</t>
+    <t>3.6.4 *</t>
   </si>
   <si>
     <t>Snow Fraction</t>
@@ -933,7 +967,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.snow_fraction</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.5 </t>
+    <t xml:space="preserve">3.6.5 </t>
   </si>
   <si>
     <t>Specify any additional details related to snow on ice.</t>
@@ -942,7 +976,7 @@
     <t>cmip6.seaice.grid.snow_on_seaice.additional_details</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>4.1</t>
   </si>
   <si>
     <t>Dynamics</t>
@@ -951,7 +985,7 @@
     <t>Sea Ice Dynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">4.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the dynamics in seaice model.</t>
@@ -960,7 +994,7 @@
     <t>cmip6.seaice.dynamics.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">4.1.2 </t>
   </si>
   <si>
     <t>Overview of sea ice dynamics in seaice model.</t>
@@ -969,7 +1003,7 @@
     <t>cmip6.seaice.dynamics.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>4.1.3 *</t>
   </si>
   <si>
     <t>Horizontal Transport</t>
@@ -990,7 +1024,7 @@
     <t>Eulerian</t>
   </si>
   <si>
-    <t>3.1.4 *</t>
+    <t>4.1.4 *</t>
   </si>
   <si>
     <t>Transport In Thickness Space</t>
@@ -1002,7 +1036,7 @@
     <t>cmip6.seaice.dynamics.transport_in_thickness_space</t>
   </si>
   <si>
-    <t>3.1.5 *</t>
+    <t>4.1.5 *</t>
   </si>
   <si>
     <t>Ice Strength Formulation</t>
@@ -1020,7 +1054,7 @@
     <t>Rothrock 1975</t>
   </si>
   <si>
-    <t>3.1.6 *</t>
+    <t>4.1.6 *</t>
   </si>
   <si>
     <t>Redistribution</t>
@@ -1038,7 +1072,7 @@
     <t>Ridging</t>
   </si>
   <si>
-    <t>3.1.7 *</t>
+    <t>4.1.7 *</t>
   </si>
   <si>
     <t>Rheology</t>
@@ -1068,7 +1102,7 @@
     <t>Granular</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>5.1</t>
   </si>
   <si>
     <t>Thermodynamics</t>
@@ -1077,7 +1111,7 @@
     <t>Sea Ice Thermodynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">5.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the thermodynamics in seaice model.</t>
@@ -1086,7 +1120,7 @@
     <t>cmip6.seaice.thermodynamics.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">5.1.2 </t>
   </si>
   <si>
     <t>Overview of sea ice thermodynamics in seaice model.</t>
@@ -1098,7 +1132,7 @@
     <t>Ice distribution is taken into account implicitly through a modified vertical diffusion</t>
   </si>
   <si>
-    <t>4.2</t>
+    <t>5.2</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Energy</t>
@@ -1107,7 +1141,7 @@
     <t>Processes related to energy in sea ice thermodynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.1 </t>
+    <t xml:space="preserve">5.2.1 </t>
   </si>
   <si>
     <t>Overview of processes related to energy in sea ice thermodynamics in seaice model.</t>
@@ -1116,7 +1150,7 @@
     <t>cmip6.seaice.thermodynamics.energy.overview</t>
   </si>
   <si>
-    <t>4.2.2 *</t>
+    <t>5.2.2 *</t>
   </si>
   <si>
     <t>Enthalpy Formulation</t>
@@ -1140,7 +1174,7 @@
     <t>Pure ice latent and sensible heat + explicit brine inclusions (Bitz and Lipscomb)</t>
   </si>
   <si>
-    <t>4.2.3 *</t>
+    <t>5.2.3 *</t>
   </si>
   <si>
     <t>Thermal Conductivity</t>
@@ -1158,7 +1192,7 @@
     <t>Saline ice</t>
   </si>
   <si>
-    <t>4.2.4 *</t>
+    <t>5.2.4 *</t>
   </si>
   <si>
     <t>Heat Diffusion</t>
@@ -1182,7 +1216,7 @@
     <t>Conduction, radiation and latent heat transport</t>
   </si>
   <si>
-    <t>4.2.5 *</t>
+    <t>5.2.5 *</t>
   </si>
   <si>
     <t>Basal Heat Flux</t>
@@ -1206,7 +1240,7 @@
     <t>Thermal Varying Salinity</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.6 </t>
+    <t xml:space="preserve">5.2.6 </t>
   </si>
   <si>
     <t>Fixed Salinity Value</t>
@@ -1218,7 +1252,7 @@
     <t>cmip6.seaice.thermodynamics.energy.fixed_salinity_value</t>
   </si>
   <si>
-    <t>4.2.7 *</t>
+    <t>5.2.7 *</t>
   </si>
   <si>
     <t>Heat Content Of Precipitation</t>
@@ -1230,7 +1264,7 @@
     <t>cmip6.seaice.thermodynamics.energy.heat_content_of_precipitation</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.8 </t>
+    <t xml:space="preserve">5.2.8 </t>
   </si>
   <si>
     <t>Precipitation Effects On Salinity</t>
@@ -1242,7 +1276,7 @@
     <t>cmip6.seaice.thermodynamics.energy.precipitation_effects_on_salinity</t>
   </si>
   <si>
-    <t>4.3</t>
+    <t>5.3</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Mass</t>
@@ -1251,7 +1285,7 @@
     <t>Processes related to mass in sea ice thermodynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.1 </t>
+    <t xml:space="preserve">5.3.1 </t>
   </si>
   <si>
     <t>Overview of processes related to mass in sea ice thermodynamics in seaice model.</t>
@@ -1260,7 +1294,7 @@
     <t>cmip6.seaice.thermodynamics.mass.overview</t>
   </si>
   <si>
-    <t>4.3.2 *</t>
+    <t>5.3.2 *</t>
   </si>
   <si>
     <t>New Ice Formation</t>
@@ -1275,7 +1309,7 @@
     <t>Ice formed with from prescribed thickness</t>
   </si>
   <si>
-    <t>4.3.3 *</t>
+    <t>5.3.3 *</t>
   </si>
   <si>
     <t>Ice Vertical Growth And Melt</t>
@@ -1287,7 +1321,7 @@
     <t>cmip6.seaice.thermodynamics.mass.ice_vertical_growth_and_melt</t>
   </si>
   <si>
-    <t>4.3.4 *</t>
+    <t>5.3.4 *</t>
   </si>
   <si>
     <t>Ice Lateral Melting</t>
@@ -1305,7 +1339,7 @@
     <t>Virtual thin ice melting (for single-category)</t>
   </si>
   <si>
-    <t>4.3.5 *</t>
+    <t>5.3.5 *</t>
   </si>
   <si>
     <t>Ice Surface Sublimation</t>
@@ -1317,7 +1351,7 @@
     <t>cmip6.seaice.thermodynamics.mass.ice_surface_sublimation</t>
   </si>
   <si>
-    <t>4.3.6 *</t>
+    <t>5.3.6 *</t>
   </si>
   <si>
     <t>Frazil Ice</t>
@@ -1329,7 +1363,7 @@
     <t>cmip6.seaice.thermodynamics.mass.frazil_ice</t>
   </si>
   <si>
-    <t>4.4</t>
+    <t>5.4</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Salt</t>
@@ -1338,7 +1372,7 @@
     <t>Processes related to salt in sea ice thermodynamics.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.1 </t>
+    <t xml:space="preserve">5.4.1 </t>
   </si>
   <si>
     <t>Overview of processes related to salt in sea ice thermodynamics. in seaice model.</t>
@@ -1347,7 +1381,7 @@
     <t>cmip6.seaice.thermodynamics.salt.overview</t>
   </si>
   <si>
-    <t>4.4.2 *</t>
+    <t>5.4.2 *</t>
   </si>
   <si>
     <t>Has Multiple Sea Ice Salinities</t>
@@ -1359,7 +1393,7 @@
     <t>cmip6.seaice.thermodynamics.salt.has_multiple_sea_ice_salinities</t>
   </si>
   <si>
-    <t>4.4.3 *</t>
+    <t>5.4.3 *</t>
   </si>
   <si>
     <t>Sea Ice Salinity Thermal Impacts</t>
@@ -1371,7 +1405,7 @@
     <t>cmip6.seaice.thermodynamics.salt.sea_ice_salinity_thermal_impacts</t>
   </si>
   <si>
-    <t>4.5</t>
+    <t>5.5</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Salt --&gt; Mass Transport</t>
@@ -1380,7 +1414,7 @@
     <t>Mass transport of salt</t>
   </si>
   <si>
-    <t>4.5.1 *</t>
+    <t>5.5.1 *</t>
   </si>
   <si>
     <t>Salinity Type</t>
@@ -1398,7 +1432,7 @@
     <t>Prognostic salinity profile</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5.2 </t>
+    <t xml:space="preserve">5.5.2 </t>
   </si>
   <si>
     <t>Constant Salinity Value</t>
@@ -1410,7 +1444,7 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.constant_salinity_value</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5.3 </t>
+    <t xml:space="preserve">5.5.3 </t>
   </si>
   <si>
     <t>Describe the salinity profile used.</t>
@@ -1419,7 +1453,7 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.additional_details</t>
   </si>
   <si>
-    <t>4.6</t>
+    <t>5.6</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Salt --&gt; Thermodynamics</t>
@@ -1428,7 +1462,7 @@
     <t>Salt thermodynamics</t>
   </si>
   <si>
-    <t>4.6.1 *</t>
+    <t>5.6.1 *</t>
   </si>
   <si>
     <t>How is salinity determined in the thermodynamic calculation?</t>
@@ -1437,19 +1471,19 @@
     <t>cmip6.seaice.thermodynamics.salt.thermodynamics.salinity_type</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6.2 </t>
+    <t xml:space="preserve">5.6.2 </t>
   </si>
   <si>
     <t>cmip6.seaice.thermodynamics.salt.thermodynamics.constant_salinity_value</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6.3 </t>
+    <t xml:space="preserve">5.6.3 </t>
   </si>
   <si>
     <t>cmip6.seaice.thermodynamics.salt.thermodynamics.additional_details</t>
   </si>
   <si>
-    <t>4.7</t>
+    <t>5.7</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Ice Thickness Distribution</t>
@@ -1458,7 +1492,7 @@
     <t>Ice thickness distribution details.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7.1 </t>
+    <t xml:space="preserve">5.7.1 </t>
   </si>
   <si>
     <t>Overview of ice thickness distribution details. in seaice model.</t>
@@ -1467,7 +1501,7 @@
     <t>cmip6.seaice.thermodynamics.ice_thickness_distribution.overview</t>
   </si>
   <si>
-    <t>4.7.2 *</t>
+    <t>5.7.2 *</t>
   </si>
   <si>
     <t>Representation</t>
@@ -1485,7 +1519,7 @@
     <t>Virtual (enhancement of thermal conductivity, thin ice melting)</t>
   </si>
   <si>
-    <t>4.8</t>
+    <t>5.8</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Ice Floe Size Distribution</t>
@@ -1494,7 +1528,7 @@
     <t>Ice floe-size distribution details.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8.1 </t>
+    <t xml:space="preserve">5.8.1 </t>
   </si>
   <si>
     <t>Overview of ice floe-size distribution details. in seaice model.</t>
@@ -1503,7 +1537,7 @@
     <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.overview</t>
   </si>
   <si>
-    <t>4.8.2 *</t>
+    <t>5.8.2 *</t>
   </si>
   <si>
     <t>How is the sea ice floe-size represented?</t>
@@ -1515,7 +1549,7 @@
     <t>Parameterised</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8.3 </t>
+    <t xml:space="preserve">5.8.3 </t>
   </si>
   <si>
     <t>Please provide further details on any parameterisation of floe-size.</t>
@@ -1524,7 +1558,7 @@
     <t>cmip6.seaice.thermodynamics.ice_floe_size_distribution.additional_details</t>
   </si>
   <si>
-    <t>4.9</t>
+    <t>5.9</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Melt Ponds</t>
@@ -1533,7 +1567,7 @@
     <t>Characteristics of melt ponds.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9.1 </t>
+    <t xml:space="preserve">5.9.1 </t>
   </si>
   <si>
     <t>Overview of characteristics of melt ponds. in seaice model.</t>
@@ -1542,7 +1576,7 @@
     <t>cmip6.seaice.thermodynamics.melt_ponds.overview</t>
   </si>
   <si>
-    <t>4.9.2 *</t>
+    <t>5.9.2 *</t>
   </si>
   <si>
     <t>Are Included</t>
@@ -1554,7 +1588,7 @@
     <t>cmip6.seaice.thermodynamics.melt_ponds.are_included</t>
   </si>
   <si>
-    <t>4.9.3 *</t>
+    <t>5.9.3 *</t>
   </si>
   <si>
     <t>Formulation</t>
@@ -1575,7 +1609,7 @@
     <t>Level-ice melt ponds</t>
   </si>
   <si>
-    <t>4.9.4 *</t>
+    <t>5.9.4 *</t>
   </si>
   <si>
     <t>Impacts</t>
@@ -1596,7 +1630,7 @@
     <t>Heat</t>
   </si>
   <si>
-    <t>4.10</t>
+    <t>5.10</t>
   </si>
   <si>
     <t>Thermodynamics --&gt; Snow Processes</t>
@@ -1605,7 +1639,7 @@
     <t>Thermodynamic processes in snow on sea ice</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10.1 </t>
+    <t xml:space="preserve">5.10.1 </t>
   </si>
   <si>
     <t>Overview of thermodynamic processes in snow on sea ice in seaice model.</t>
@@ -1614,7 +1648,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.overview</t>
   </si>
   <si>
-    <t>4.10.2 *</t>
+    <t>5.10.2 *</t>
   </si>
   <si>
     <t>Has Snow Aging</t>
@@ -1626,7 +1660,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_aging</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10.3 </t>
+    <t xml:space="preserve">5.10.3 </t>
   </si>
   <si>
     <t>Snow Aging Scheme</t>
@@ -1638,7 +1672,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.snow_aging_scheme</t>
   </si>
   <si>
-    <t>4.10.4 *</t>
+    <t>5.10.4 *</t>
   </si>
   <si>
     <t>Has Snow Ice Formation</t>
@@ -1650,7 +1684,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.has_snow_ice_formation</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10.5 </t>
+    <t xml:space="preserve">5.10.5 </t>
   </si>
   <si>
     <t>Snow Ice Formation Scheme</t>
@@ -1662,7 +1696,7 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.snow_ice_formation_scheme</t>
   </si>
   <si>
-    <t>4.10.6 *</t>
+    <t>5.10.6 *</t>
   </si>
   <si>
     <t>What is the impact of ridging on snow cover?</t>
@@ -1674,7 +1708,7 @@
     <t>Snow-ice</t>
   </si>
   <si>
-    <t>4.10.7 *</t>
+    <t>5.10.7 *</t>
   </si>
   <si>
     <t>What is the heat diffusion through snow methodology in sea ice thermodynamics?</t>
@@ -1692,7 +1726,7 @@
     <t>Multi-layered heat diffusion</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>6.1</t>
   </si>
   <si>
     <t>Radiative Processes</t>
@@ -1701,7 +1735,7 @@
     <t>Sea Ice Radiative Processes</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">6.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the radiative processes in seaice model.</t>
@@ -1710,7 +1744,7 @@
     <t>cmip6.seaice.radiative_processes.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">6.1.2 </t>
   </si>
   <si>
     <t>Overview of sea ice radiative processes in seaice model.</t>
@@ -1719,7 +1753,7 @@
     <t>cmip6.seaice.radiative_processes.overview</t>
   </si>
   <si>
-    <t>5.1.3 *</t>
+    <t>6.1.3 *</t>
   </si>
   <si>
     <t>Surface Albedo</t>
@@ -1743,7 +1777,7 @@
     <t>Multi-band albedo</t>
   </si>
   <si>
-    <t>5.1.4 *</t>
+    <t>6.1.4 *</t>
   </si>
   <si>
     <t>Ice Radiation Transmission</t>
@@ -1765,7 +1799,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1807,9 +1841,8 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="24"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -1834,14 +1867,22 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1891,7 +1932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1908,10 +1949,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1923,11 +1961,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2223,7 +2267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD16"/>
+  <dimension ref="A1:XFD18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2299,31 +2343,119 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD177"/>
   <sheetViews>
@@ -2338,968 +2470,968 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>21</v>
+      <c r="B2" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>26</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>29</v>
+      <c r="A8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>31</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>32</v>
+      <c r="B10" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>34</v>
+      <c r="A13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>36</v>
+      <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>37</v>
+      <c r="B15" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>40</v>
+      <c r="A19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
-      <c r="B20" s="7" t="s">
-        <v>41</v>
+      <c r="B20" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>34</v>
+      <c r="A22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>44</v>
+      <c r="A23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="24" customHeight="1">
       <c r="B24" s="11"/>
     </row>
     <row r="26" spans="1:38" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>46</v>
+      <c r="A26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>49</v>
+      <c r="A27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="24" customHeight="1">
-      <c r="B28" s="12" t="s">
-        <v>50</v>
+      <c r="B28" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="24" customHeight="1">
       <c r="B29" s="11" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="AA29" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="AD29" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AE29" s="5" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AF29" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="AG29" s="5" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AH29" s="5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AI29" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AJ29" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="AK29" s="5" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AL29" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="24" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>65</v>
+      <c r="A32" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
-      <c r="B33" s="7" t="s">
-        <v>66</v>
+      <c r="B33" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>34</v>
+      <c r="A35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>69</v>
+      <c r="A36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
-      <c r="A39" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>71</v>
+      <c r="A39" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>73</v>
+      <c r="A40" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="B41" s="11"/>
       <c r="AA41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC41" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AB41" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC41" s="5" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>77</v>
+      <c r="A43" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>80</v>
+      <c r="A44" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>82</v>
+      <c r="A48" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="7" t="s">
-        <v>83</v>
+      <c r="B49" s="13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>34</v>
+      <c r="A51" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>86</v>
+      <c r="A52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="11"/>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>23</v>
+      <c r="A55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>89</v>
+      <c r="A56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="B57" s="11"/>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>91</v>
+      <c r="A59" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>93</v>
+      <c r="A60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="11"/>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="A63" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>95</v>
+      <c r="A63" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>98</v>
+      <c r="A64" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="B65" s="11"/>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="A68" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>100</v>
+      <c r="A68" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="B69" s="7" t="s">
-        <v>101</v>
+      <c r="B69" s="13" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="A71" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>34</v>
+      <c r="A71" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>104</v>
+      <c r="A72" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="B73" s="11"/>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="A75" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>106</v>
+      <c r="A75" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="A76" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>108</v>
+      <c r="A76" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="B77" s="12" t="s">
-        <v>37</v>
+      <c r="B77" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="178" customHeight="1">
       <c r="B78" s="11"/>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>110</v>
+      <c r="A80" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>112</v>
+      <c r="A81" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="B82" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>114</v>
+      <c r="A84" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>116</v>
+      <c r="A85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="12" t="s">
-        <v>32</v>
+      <c r="B86" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>118</v>
+      <c r="A89" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>120</v>
+      <c r="A90" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="12" t="s">
-        <v>32</v>
+      <c r="B91" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="B92" s="11"/>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>122</v>
+      <c r="A94" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>124</v>
+      <c r="A95" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="12" t="s">
-        <v>32</v>
+      <c r="B96" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="B97" s="11"/>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>126</v>
+      <c r="A100" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="7" t="s">
-        <v>127</v>
+      <c r="B101" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>34</v>
+      <c r="A103" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>130</v>
+      <c r="A104" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>132</v>
+      <c r="A107" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>134</v>
+      <c r="A108" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>136</v>
+      <c r="A111" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>138</v>
+      <c r="A112" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>140</v>
+      <c r="A115" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>142</v>
+      <c r="A116" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="B117" s="11"/>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>144</v>
+      <c r="A119" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>146</v>
+      <c r="A120" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="12" t="s">
-        <v>32</v>
+      <c r="B121" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="B122" s="11"/>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>148</v>
+      <c r="A125" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="B126" s="7" t="s">
-        <v>149</v>
+      <c r="B126" s="13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>34</v>
+      <c r="A128" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>152</v>
+      <c r="A129" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="11"/>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>106</v>
+      <c r="A132" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>155</v>
+      <c r="A133" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="12" t="s">
-        <v>37</v>
+      <c r="B134" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="178" customHeight="1">
       <c r="B135" s="11"/>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>157</v>
+      <c r="A137" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>159</v>
+      <c r="A138" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="B139" s="12" t="s">
-        <v>32</v>
+      <c r="B139" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11"/>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>161</v>
+      <c r="A142" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="A143" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>163</v>
+      <c r="A143" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="B144" s="12" t="s">
-        <v>32</v>
+      <c r="B144" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
       <c r="B145" s="11"/>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="A148" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>165</v>
+      <c r="A148" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="B149" s="7" t="s">
-        <v>166</v>
+      <c r="B149" s="13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="A151" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>34</v>
+      <c r="A151" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="A152" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>169</v>
+      <c r="A152" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="B153" s="11"/>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="A155" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>106</v>
+      <c r="A155" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="A156" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>172</v>
+      <c r="A156" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="B157" s="12" t="s">
-        <v>37</v>
+      <c r="B157" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="178" customHeight="1">
       <c r="B158" s="11"/>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="A160" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>174</v>
+      <c r="A160" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:30" ht="24" customHeight="1">
-      <c r="A161" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>176</v>
+      <c r="A161" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="162" spans="1:30" ht="24" customHeight="1">
-      <c r="B162" s="12" t="s">
-        <v>50</v>
+      <c r="B162" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="163" spans="1:30" ht="24" customHeight="1">
       <c r="B163" s="11"/>
       <c r="AA163" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AB163" s="5" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="AC163" s="5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AD163" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="165" spans="1:30" ht="24" customHeight="1">
-      <c r="A165" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>181</v>
+      <c r="A165" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="166" spans="1:30" ht="24" customHeight="1">
-      <c r="A166" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>183</v>
+      <c r="A166" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="167" spans="1:30" ht="24" customHeight="1">
-      <c r="B167" s="12" t="s">
-        <v>32</v>
+      <c r="B167" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="168" spans="1:30" ht="24" customHeight="1">
       <c r="B168" s="11"/>
     </row>
     <row r="170" spans="1:30" ht="24" customHeight="1">
-      <c r="A170" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>185</v>
+      <c r="A170" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="1:30" ht="24" customHeight="1">
-      <c r="A171" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>188</v>
+      <c r="A171" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="172" spans="1:30" ht="24" customHeight="1">
       <c r="B172" s="11"/>
     </row>
     <row r="174" spans="1:30" ht="24" customHeight="1">
-      <c r="A174" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>190</v>
+      <c r="A174" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="175" spans="1:30" ht="24" customHeight="1">
-      <c r="A175" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>192</v>
+      <c r="A175" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="176" spans="1:30" ht="24" customHeight="1">
-      <c r="B176" s="12" t="s">
-        <v>32</v>
+      <c r="B176" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="24" customHeight="1">
@@ -3343,7 +3475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD123"/>
   <sheetViews>
@@ -3358,679 +3490,679 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>194</v>
+      <c r="A1" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>195</v>
+      <c r="B2" s="13" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>198</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>34</v>
+      <c r="A8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>201</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>37</v>
+      <c r="B10" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>203</v>
+      <c r="A14" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>204</v>
+      <c r="B15" s="13" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>34</v>
+      <c r="A17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>207</v>
+      <c r="A18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>209</v>
+      <c r="A22" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="B23" s="7" t="s">
-        <v>210</v>
+      <c r="B23" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>194</v>
+      <c r="A25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>213</v>
+      <c r="A26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="AD27" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>218</v>
+      <c r="A29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>220</v>
+      <c r="A30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="5" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="AC31" s="5" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="AD31" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>225</v>
+      <c r="A33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>227</v>
+      <c r="A34" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="5" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AD35" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>232</v>
+      <c r="A37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>234</v>
+      <c r="A38" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>236</v>
+      <c r="A41" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>238</v>
+      <c r="A42" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
       <c r="B43" s="11"/>
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>240</v>
+      <c r="A45" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>242</v>
+      <c r="A46" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
-      <c r="B47" s="12" t="s">
-        <v>37</v>
+      <c r="B47" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="178" customHeight="1">
       <c r="B48" s="11"/>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
-      <c r="A51" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>244</v>
+      <c r="A51" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
-      <c r="B52" s="7" t="s">
-        <v>245</v>
+      <c r="B52" s="13" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
-      <c r="A54" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>247</v>
+      <c r="A54" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>249</v>
+      <c r="A55" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="B56" s="12" t="s">
-        <v>50</v>
+      <c r="B56" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="B57" s="11"/>
       <c r="AA57" s="5" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="AB57" s="5" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="AC57" s="5" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="AD57" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>254</v>
+      <c r="A59" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>256</v>
+      <c r="A60" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="B61" s="11"/>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
-      <c r="A63" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>240</v>
+      <c r="A63" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>259</v>
+      <c r="A64" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="B65" s="12" t="s">
-        <v>37</v>
+      <c r="B65" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="178" customHeight="1">
       <c r="B66" s="11"/>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>261</v>
+      <c r="A69" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="7" t="s">
-        <v>262</v>
+      <c r="B70" s="13" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>34</v>
+      <c r="A72" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>265</v>
+      <c r="A73" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="B74" s="11"/>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="A76" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>267</v>
+      <c r="A76" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>269</v>
+      <c r="A77" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
       <c r="B78" s="11"/>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>271</v>
+      <c r="A80" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>273</v>
+      <c r="A81" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="B82" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>275</v>
+      <c r="A84" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>277</v>
+      <c r="A85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="12" t="s">
-        <v>32</v>
+      <c r="B86" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>279</v>
+      <c r="A89" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>281</v>
+      <c r="A90" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="12" t="s">
-        <v>37</v>
+      <c r="B91" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="178" customHeight="1">
       <c r="B92" s="11"/>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>283</v>
+      <c r="A94" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>285</v>
+      <c r="A95" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="12" t="s">
-        <v>37</v>
+      <c r="B96" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="178" customHeight="1">
       <c r="B97" s="11"/>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>287</v>
+      <c r="A100" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="7" t="s">
-        <v>288</v>
+      <c r="B101" s="13" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>34</v>
+      <c r="A103" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>291</v>
+      <c r="A104" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>293</v>
+      <c r="A107" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>295</v>
+      <c r="A108" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>297</v>
+      <c r="A111" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>299</v>
+      <c r="A112" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>301</v>
+      <c r="A115" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>303</v>
+      <c r="A116" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="B117" s="12" t="s">
-        <v>37</v>
+      <c r="B117" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="178" customHeight="1">
       <c r="B118" s="11"/>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>240</v>
+      <c r="A120" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>306</v>
+      <c r="A121" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="12" t="s">
-        <v>37</v>
+      <c r="B122" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="178" customHeight="1">
@@ -4076,7 +4208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD32"/>
   <sheetViews>
@@ -4091,247 +4223,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>308</v>
+      <c r="A1" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>309</v>
+      <c r="B2" s="13" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>312</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>34</v>
+      <c r="A8" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>315</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>37</v>
+      <c r="B10" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>317</v>
+      <c r="A13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>319</v>
+      <c r="A14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="5" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>324</v>
+      <c r="A17" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>326</v>
+      <c r="A18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="5" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="AD19" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>328</v>
+      <c r="A21" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>330</v>
+      <c r="A22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>334</v>
+      <c r="A25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>336</v>
+      <c r="A26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
-      <c r="B27" s="12" t="s">
-        <v>50</v>
+      <c r="B27" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="B28" s="11"/>
       <c r="AA28" s="5" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>340</v>
+      <c r="A30" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>342</v>
+      <c r="A31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="AA32" s="5" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="AD32" s="5" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE32" s="5" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AF32" s="5" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="AG32" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4356,7 +4488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD215"/>
   <sheetViews>
@@ -4371,1243 +4503,1243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>350</v>
+      <c r="A1" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>351</v>
+      <c r="B2" s="13" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>354</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>34</v>
+      <c r="A8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>357</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>37</v>
+      <c r="B10" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>360</v>
+      <c r="A14" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>361</v>
+      <c r="B15" s="13" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>34</v>
+      <c r="A17" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>364</v>
+      <c r="A18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>366</v>
+      <c r="A21" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>368</v>
+      <c r="A22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="5" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>374</v>
+      <c r="A25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>376</v>
+      <c r="A26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="5" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>380</v>
+      <c r="A29" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>382</v>
+      <c r="A30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="AA31" s="5" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="AC31" s="5" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="AD31" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>388</v>
+      <c r="A33" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>390</v>
+      <c r="A34" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="AA35" s="5" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AD35" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>396</v>
+      <c r="A37" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>398</v>
+      <c r="A38" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>400</v>
+      <c r="A41" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>402</v>
+      <c r="A42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
-      <c r="B43" s="12" t="s">
-        <v>37</v>
+      <c r="B43" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="178" customHeight="1">
       <c r="B44" s="11"/>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>404</v>
+      <c r="A46" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>406</v>
+      <c r="A47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="24" customHeight="1">
-      <c r="B48" s="12" t="s">
-        <v>37</v>
+      <c r="B48" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="178" customHeight="1">
       <c r="B49" s="11"/>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>408</v>
+      <c r="A52" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="7" t="s">
-        <v>409</v>
+      <c r="B53" s="13" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>34</v>
+      <c r="A55" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>412</v>
+      <c r="A56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="B57" s="11"/>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>414</v>
+      <c r="A59" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>416</v>
+      <c r="A60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="12" t="s">
-        <v>37</v>
+      <c r="B61" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="178" customHeight="1">
       <c r="B62" s="11" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>419</v>
+      <c r="A64" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>421</v>
+      <c r="A65" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
-      <c r="B66" s="12" t="s">
-        <v>37</v>
+      <c r="B66" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="178" customHeight="1">
       <c r="B67" s="11"/>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>423</v>
+      <c r="A69" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>425</v>
+      <c r="A70" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
       <c r="B71" s="11"/>
       <c r="AA71" s="5" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="AB71" s="5" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="AC71" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
-      <c r="A73" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>429</v>
+      <c r="A73" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>431</v>
+      <c r="A74" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
-      <c r="B75" s="12" t="s">
-        <v>37</v>
+      <c r="B75" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="178" customHeight="1">
       <c r="B76" s="11"/>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>433</v>
+      <c r="A78" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
-      <c r="A79" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>435</v>
+      <c r="A79" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
-      <c r="B80" s="12" t="s">
-        <v>37</v>
+      <c r="B80" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="178" customHeight="1">
       <c r="B81" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>437</v>
+      <c r="A84" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="B85" s="7" t="s">
-        <v>438</v>
+      <c r="B85" s="13" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>34</v>
+      <c r="A87" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>441</v>
+      <c r="A88" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="11"/>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>443</v>
+      <c r="A91" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="A92" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>445</v>
+      <c r="A92" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="B93" s="11"/>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>447</v>
+      <c r="A95" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>449</v>
+      <c r="A96" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
       <c r="B97" s="11"/>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>451</v>
+      <c r="A100" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
-      <c r="B101" s="7" t="s">
-        <v>452</v>
+      <c r="B101" s="13" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>454</v>
+      <c r="A103" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>456</v>
+      <c r="A104" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="B105" s="11"/>
       <c r="AA105" s="5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AB105" s="5" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="AC105" s="5" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="AD105" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="24" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>460</v>
+      <c r="A107" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>462</v>
+      <c r="A108" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
       <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:30" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>240</v>
+      <c r="A111" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>465</v>
+      <c r="A112" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="113" spans="1:30" ht="24" customHeight="1">
-      <c r="B113" s="12" t="s">
-        <v>37</v>
+      <c r="B113" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:30" ht="178" customHeight="1">
       <c r="B114" s="11"/>
     </row>
     <row r="117" spans="1:30" ht="24" customHeight="1">
-      <c r="A117" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>467</v>
+      <c r="A117" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="118" spans="1:30" ht="24" customHeight="1">
-      <c r="B118" s="7" t="s">
-        <v>468</v>
+      <c r="B118" s="13" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="120" spans="1:30" ht="24" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>454</v>
+      <c r="A120" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="1:30" ht="24" customHeight="1">
-      <c r="A121" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>471</v>
+      <c r="A121" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="122" spans="1:30" ht="24" customHeight="1">
       <c r="B122" s="11"/>
       <c r="AA122" s="5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AB122" s="5" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="AC122" s="5" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="AD122" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:30" ht="24" customHeight="1">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30" ht="24" customHeight="1">
+      <c r="A125" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="125" spans="1:30" ht="24" customHeight="1">
-      <c r="A125" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>473</v>
+      <c r="C125" s="9" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="126" spans="1:30" ht="24" customHeight="1">
       <c r="B126" s="11"/>
     </row>
     <row r="128" spans="1:30" ht="24" customHeight="1">
-      <c r="A128" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>240</v>
+      <c r="A128" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:29" ht="24" customHeight="1">
-      <c r="A129" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="C129" s="10" t="s">
+      <c r="A129" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>475</v>
       </c>
+      <c r="C129" s="9" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
-      <c r="B130" s="12" t="s">
-        <v>37</v>
+      <c r="B130" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="178" customHeight="1">
       <c r="B131" s="11"/>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
-      <c r="A134" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>477</v>
+      <c r="A134" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
-      <c r="B135" s="7" t="s">
-        <v>478</v>
+      <c r="B135" s="13" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
-      <c r="A137" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>34</v>
+      <c r="A137" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
-      <c r="A138" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>481</v>
+      <c r="A138" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
       <c r="B139" s="11"/>
     </row>
     <row r="141" spans="1:29" ht="24" customHeight="1">
-      <c r="A141" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>483</v>
+      <c r="A141" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="142" spans="1:29" ht="24" customHeight="1">
-      <c r="A142" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>485</v>
+      <c r="A142" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="B143" s="11"/>
       <c r="AA143" s="5" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="AB143" s="5" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="AC143" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="146" spans="1:29" ht="24" customHeight="1">
-      <c r="A146" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>489</v>
+      <c r="A146" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="147" spans="1:29" ht="24" customHeight="1">
-      <c r="B147" s="7" t="s">
-        <v>490</v>
+      <c r="B147" s="13" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="149" spans="1:29" ht="24" customHeight="1">
-      <c r="A149" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>34</v>
+      <c r="A149" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="150" spans="1:29" ht="24" customHeight="1">
-      <c r="A150" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>493</v>
+      <c r="A150" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="151" spans="1:29" ht="24" customHeight="1">
       <c r="B151" s="11"/>
     </row>
     <row r="153" spans="1:29" ht="24" customHeight="1">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>483</v>
-      </c>
     </row>
     <row r="154" spans="1:29" ht="24" customHeight="1">
-      <c r="A154" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>496</v>
+      <c r="A154" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="155" spans="1:29" ht="24" customHeight="1">
       <c r="B155" s="11"/>
       <c r="AA155" s="5" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="AB155" s="5" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="AC155" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="157" spans="1:29" ht="24" customHeight="1">
-      <c r="A157" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>240</v>
+      <c r="A157" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="1:29" ht="24" customHeight="1">
-      <c r="A158" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>500</v>
+      <c r="A158" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="159" spans="1:29" ht="24" customHeight="1">
-      <c r="B159" s="12" t="s">
-        <v>37</v>
+      <c r="B159" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:29" ht="178" customHeight="1">
       <c r="B160" s="11"/>
     </row>
     <row r="163" spans="1:29" ht="24" customHeight="1">
-      <c r="A163" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>502</v>
+      <c r="A163" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
-      <c r="B164" s="7" t="s">
-        <v>503</v>
+      <c r="B164" s="13" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
-      <c r="A166" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>34</v>
+      <c r="A166" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="167" spans="1:29" ht="24" customHeight="1">
-      <c r="A167" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>506</v>
+      <c r="A167" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="168" spans="1:29" ht="24" customHeight="1">
       <c r="B168" s="11"/>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
-      <c r="A170" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>508</v>
+      <c r="A170" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
-      <c r="A171" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>510</v>
+      <c r="A171" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="172" spans="1:29" ht="24" customHeight="1">
       <c r="B172" s="11"/>
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
-      <c r="A174" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>512</v>
+      <c r="A174" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
-      <c r="A175" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>514</v>
+      <c r="A175" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
       <c r="B176" s="11" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="AA176" s="5" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="AB176" s="5" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="AC176" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="178" spans="1:30" ht="24" customHeight="1">
-      <c r="A178" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>519</v>
+      <c r="A178" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="179" spans="1:30" ht="24" customHeight="1">
-      <c r="A179" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B179" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>521</v>
+      <c r="A179" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="180" spans="1:30" ht="24" customHeight="1">
-      <c r="B180" s="12" t="s">
-        <v>50</v>
+      <c r="B180" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="181" spans="1:30" ht="24" customHeight="1">
       <c r="B181" s="11"/>
       <c r="AA181" s="5" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="AB181" s="5" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="AC181" s="5" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="AD181" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="184" spans="1:30" ht="24" customHeight="1">
-      <c r="A184" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>526</v>
+      <c r="A184" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="185" spans="1:30" ht="24" customHeight="1">
-      <c r="B185" s="7" t="s">
-        <v>527</v>
+      <c r="B185" s="13" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="187" spans="1:30" ht="24" customHeight="1">
-      <c r="A187" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>34</v>
+      <c r="A187" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="188" spans="1:30" ht="24" customHeight="1">
-      <c r="A188" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B188" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>530</v>
+      <c r="A188" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="189" spans="1:30" ht="24" customHeight="1">
       <c r="B189" s="11"/>
     </row>
     <row r="191" spans="1:30" ht="24" customHeight="1">
-      <c r="A191" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>532</v>
+      <c r="A191" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="192" spans="1:30" ht="24" customHeight="1">
-      <c r="A192" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>534</v>
+      <c r="A192" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
       <c r="B193" s="11"/>
     </row>
     <row r="195" spans="1:3" ht="24" customHeight="1">
-      <c r="A195" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>536</v>
+      <c r="A195" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="24" customHeight="1">
-      <c r="A196" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B196" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>538</v>
+      <c r="A196" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="24" customHeight="1">
-      <c r="B197" s="12" t="s">
-        <v>37</v>
+      <c r="B197" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="178" customHeight="1">
       <c r="B198" s="11"/>
     </row>
     <row r="200" spans="1:3" ht="24" customHeight="1">
-      <c r="A200" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>540</v>
+      <c r="A200" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="24" customHeight="1">
-      <c r="A201" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B201" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>542</v>
+      <c r="A201" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="24" customHeight="1">
       <c r="B202" s="11"/>
     </row>
     <row r="204" spans="1:3" ht="24" customHeight="1">
-      <c r="A204" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>544</v>
+      <c r="A204" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="24" customHeight="1">
-      <c r="A205" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B205" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>546</v>
+      <c r="A205" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="24" customHeight="1">
-      <c r="B206" s="12" t="s">
-        <v>37</v>
+      <c r="B206" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="178" customHeight="1">
       <c r="B207" s="11"/>
     </row>
     <row r="209" spans="1:29" ht="24" customHeight="1">
-      <c r="A209" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>334</v>
+      <c r="A209" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="210" spans="1:29" ht="24" customHeight="1">
-      <c r="A210" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B210" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>549</v>
+      <c r="A210" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="211" spans="1:29" ht="24" customHeight="1">
       <c r="B211" s="11" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="213" spans="1:29" ht="24" customHeight="1">
-      <c r="A213" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>380</v>
+      <c r="A213" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="214" spans="1:29" ht="24" customHeight="1">
-      <c r="A214" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B214" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>553</v>
+      <c r="A214" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="215" spans="1:29" ht="24" customHeight="1">
       <c r="B215" s="11" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="AA215" s="5" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="AB215" s="5" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="AC215" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5680,7 +5812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD20"/>
   <sheetViews>
@@ -5695,140 +5827,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>558</v>
+      <c r="A1" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>559</v>
+      <c r="B2" s="13" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>562</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>34</v>
+      <c r="A8" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>565</v>
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>37</v>
+      <c r="B10" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>567</v>
+      <c r="A13" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>569</v>
+      <c r="A14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>575</v>
+      <c r="A17" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>577</v>
+      <c r="A18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="12" t="s">
-        <v>50</v>
+      <c r="B19" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="5" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_seaice.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_seaice.xlsx
@@ -43,7 +43,7 @@
     <t>IPSL-CM6A-LR</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Sea Ice</t>

--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_seaice.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_seaice.xlsx
@@ -103,7 +103,7 @@
     <t>STRING</t>
   </si>
   <si>
-    <t>Mnemonic references to responsible parties</t>
+    <t>Responsible party identifiers</t>
   </si>
   <si>
     <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
@@ -115,7 +115,7 @@
     <t>Citations</t>
   </si>
   <si>
-    <t>Mnemonic references to citations</t>
+    <t>Citation identifiers</t>
   </si>
   <si>
     <t>2.1</t>

--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_seaice.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_seaice.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="5. Thermodynamics" sheetId="6" r:id="rId6"/>
     <sheet name="6. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="643">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -103,7 +103,7 @@
     <t>STRING</t>
   </si>
   <si>
-    <t>Responsible party identifiers</t>
+    <t>Mnemonic references to responsible parties</t>
   </si>
   <si>
     <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
@@ -115,7 +115,7 @@
     <t>Citations</t>
   </si>
   <si>
-    <t>Citation identifiers</t>
+    <t>Mnemonic references to citations</t>
   </si>
   <si>
     <t>2.1</t>
@@ -139,9 +139,6 @@
     <t>cmip6.seaice.key_properties.name</t>
   </si>
   <si>
-    <t>NEMO /Louvain La Neuve Sea Ice Model version 2</t>
-  </si>
-  <si>
     <t>2.1.2 *</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>LIM2 (Louvain-la-Neuve Sea Ice Model, Version 2) is a two-level thermodynamic-dynamic sea ice model (Fichefet and Morales Maqueda, 1997, 1999). Sensible heat storage and vertical heat conduction within snow and ice are determined by a three-layer model. The storage of latent heat inside the ice resulting from the trapping of shortwave radiation by brine pockets is taken into account. The surface albedo is parametrized as a function of the surface temperature and the snow and ice thicknesses. Vertical and lateral growth/decay rates of the ice are obtained from prognostic energy budgets at both the bottom and surface boundaries of the snow-ice cover and in leads. For the momentum balance, sea ice is considered as a two-dimensional continuum in dynamical interaction with atmosphere and ocean. The viscous-plastic constitutive law proposed by Hibler (1979) is used for computing the internal ice force. The ice strength is taken as a function of the ice thickness and compactness. The physical fields that are advected are the ice concentration, the snow and ice volume and enthalpy, and the brine reservoir. The sea ice and ocean models have the same horizontal grid.</t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
@@ -208,9 +202,6 @@
     <t>cmip6.seaice.key_properties.variables.prognostic</t>
   </si>
   <si>
-    <t>Other: sea ice [thickness, concentration, velocity, temperature, heat content], snow thickness, snow temperature</t>
-  </si>
-  <si>
     <t>Sea ice temperature</t>
   </si>
   <si>
@@ -1129,9 +1120,6 @@
     <t>cmip6.seaice.thermodynamics.overview</t>
   </si>
   <si>
-    <t>Ice distribution is taken into account implicitly through a modified vertical diffusion</t>
-  </si>
-  <si>
     <t>5.2</t>
   </si>
   <si>
@@ -1204,9 +1192,6 @@
     <t>cmip6.seaice.thermodynamics.energy.heat_diffusion</t>
   </si>
   <si>
-    <t>Other: multi-layer on a regular vertical grid</t>
-  </si>
-  <si>
     <t>Conduction fluxes</t>
   </si>
   <si>
@@ -1228,9 +1213,6 @@
     <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
   </si>
   <si>
-    <t>Other: parametrized (calculated in ocean)</t>
-  </si>
-  <si>
     <t>Heat Reservoir</t>
   </si>
   <si>
@@ -1306,9 +1288,6 @@
     <t>cmip6.seaice.thermodynamics.mass.new_ice_formation</t>
   </si>
   <si>
-    <t>Ice formed with from prescribed thickness</t>
-  </si>
-  <si>
     <t>5.3.3 *</t>
   </si>
   <si>
@@ -1600,9 +1579,6 @@
     <t>cmip6.seaice.thermodynamics.melt_ponds.formulation</t>
   </si>
   <si>
-    <t>Other: no</t>
-  </si>
-  <si>
     <t>Flocco and Feltham (2010)</t>
   </si>
   <si>
@@ -1705,9 +1681,6 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.redistribution</t>
   </si>
   <si>
-    <t>Snow-ice</t>
-  </si>
-  <si>
     <t>5.10.7 *</t>
   </si>
   <si>
@@ -1717,9 +1690,6 @@
     <t>cmip6.seaice.thermodynamics.snow_processes.heat_diffusion</t>
   </si>
   <si>
-    <t>Other: one layer</t>
-  </si>
-  <si>
     <t>Single-layered heat diffusion</t>
   </si>
   <si>
@@ -1765,9 +1735,6 @@
     <t>cmip6.seaice.radiative_processes.surface_albedo</t>
   </si>
   <si>
-    <t>Other: fonction of temperature and sea ice + snow thickness</t>
-  </si>
-  <si>
     <t>Delta-Eddington</t>
   </si>
   <si>
@@ -1793,12 +1760,201 @@
   </si>
   <si>
     <t>Ice radiation transmission per category</t>
+  </si>
+  <si>
+    <t>Vancoppenolle2009</t>
+  </si>
+  <si>
+    <t>Rousset2015</t>
+  </si>
+  <si>
+    <t>Louvain La Neuve Sea Ice Model version 3</t>
+  </si>
+  <si>
+    <t>LIM3, sea-ice</t>
+  </si>
+  <si>
+    <t>LIM3.6 (Louvain-la-Neuve Ice Model v3.6) is a multi-category halo-thermodynamic dynamic sea ice model embedded the NEMO environment (including the horizontal grid). LIM3.6 is based on the Arctic Ice Dynamics Joint EXperiment (AIDJEX) framework (Coon et al., 1974), combining the ice thickness distribution framework, the conservation of horizontal momentum, an elastic-viscous plastic rheology, and energy-conserving halo-thermodynamics. Virtually all of these components of the sea ice model have been introduced or revised since CMIP5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prognostic variables target ice and snow mass, enthalpy and salt content, split over ice categories; plus horizontal velocity vector components and internal stress tensor. </t>
+  </si>
+  <si>
+    <t>Snow enthalpy</t>
+  </si>
+  <si>
+    <t>Snow volume per unit area</t>
+  </si>
+  <si>
+    <t>The grid (362 * 332 * 75 levels) is quasi-isotropic grid with about 50 km in the Arctic and from about 50 to 25 km south of 60°S. There are 75 vertical levels, XX of which are located in the upper 500 m.</t>
+  </si>
+  <si>
+    <t>eORCA1</t>
+  </si>
+  <si>
+    <t>1 degree</t>
+  </si>
+  <si>
+    <t>Combination of offline and online tuning.</t>
+  </si>
+  <si>
+    <t>Most of the sea ice parameters were adjusted through a long history of forced-atmosphere runs. Ice dynamics were adjusted during that procedure (notably the ice strength). During the assemblage and tuning of the coupled model, tuning of the atmosphere was applied first to minimize the distance to observed SST from 50S to 50N. This left positive winter air temperature biases in particular in the Northern Hemisphere. The albedo and the thermal conductivity of snow were then tuned online. The target were: the observed seasonal cycle of Arctic and Antarctic sea ice extents, and an annual mean Arctic sea ice volume of 20,000 km3. We did not control the Southern Ocean ice volume. The tuning was approximate in that there was no strictly applied criterion, but only a visual verification.</t>
+  </si>
+  <si>
+    <t>In the limit of our possibilites, the target was a reasonable seasonal cycle of ice extent in both hemispheres and 20,000 km3 for the Arctic sea ice volume.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We target present-day conditions, by constructing a pd-control, which is an equilibrium simulation mimicking present day conditions. It is based on the pi-control setup with a change in ocean surface albedo to emulate the effect of the extra oceanic heat uptake. Pi-control and historical runs are checked a posteriori. </t>
+  </si>
+  <si>
+    <t>NH max extent, NH min extent, SH min extent, SH max extent, NH annual mean volume</t>
+  </si>
+  <si>
+    <t>Surface albedo, snow thermal conductivity, ice strength parameter (Hibler 79 pstar), minimum lead fraction</t>
+  </si>
+  <si>
+    <t>dry snow albedo: 0.87, melting snow albedo: 0.82, dry ice albedo: 0.65, melting ice albedo: 0.58, minimum lead fraction (north): 0.997, minimum lead fraction (south): 0.95</t>
+  </si>
+  <si>
+    <t>Ice dynamics: ice is a 2D viscous-plastic continuum, vertical motion is negligible. Ice thermodynamics: ice is horizontally infinitely wide, no horizontal heat transfer. Snow is horizontally uniform and covers all ice. No dynamic melt ponds. No interactive drags. No blowing snow. All rains fall into the ocean.</t>
+  </si>
+  <si>
+    <t>Fields that are not part of sea ice representation: sisnconc (snow area fraction), simpconc (melt pond area fraction), simpmass (melt pond mass per area), simprefrozen (thickness of refrozen ice on ponds), sirdgconc (ridged ice area fraction), sirdgmass (ridged ice thickness), sidmasslat (lateral sea ice melt rate), sndmasswindrif (snow mass change through wind drift of snow). Fields which value is trivial: sipr (rainfall over sea ice) - all rain falls in open water. sidragtop (atmospheric drag over sea ice) is specified in the atmospheric component. sidragbot (oceanic drag over sea ice): namelist parameter.</t>
+  </si>
+  <si>
+    <t>No dynamic melt ponds, no interactive drags, no blowing snow</t>
+  </si>
+  <si>
+    <t>Conservation of ice mass, thermal energy and salt mass is tracked.</t>
+  </si>
+  <si>
+    <t>Conservation is enforced in model equations. It has been thoroughly checked online both within each of the model routines and also globally over an entire model time steps.</t>
+  </si>
+  <si>
+    <t>Offline conservation check with output variables has not been performed.</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>The horizontal grid (362 * 332 grid points) is the quasi-isotropic curvilinear extended ORCA grid with about 50 km resolution in the Arctic and from about 50 to 25 km south of 60°S. We use 5 thickness categories, 1 snow layer and 2 layers of sea ice.</t>
+  </si>
+  <si>
+    <t>Finite differences horizontally and vertically, semi-lagrangian in thickness space.</t>
+  </si>
+  <si>
+    <t>Ice dynamics are subycled over 120 time steps (45*120=5400). Ice model is called every two ocean model timesteps</t>
+  </si>
+  <si>
+    <t>2 layers of snow and 1 layer of sea ice are used</t>
+  </si>
+  <si>
+    <t>The thickness distribution is discretized over 5 thickness categories (Lipscomb, 2001). The ice thickness in each category is free to evolve between fixed boundaries. All state variables depend on category.</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>0, 0.4540, 1.1293, 2.1415, 3.6706, 99.</t>
+  </si>
+  <si>
+    <t>The thickness distribution is discretized over 5 thickness categories (Lipscomb, 2001), each characterized by a specific area fraction (or ice concentration). The ice thickness in each category is free to evolve between fixed boundaries. All state variables depend on category. Transport in thickness space due to thermodynamic growth and melt follows Lipscomb (2001). Opening, ridging and rafting due to non-uniform ice motion follow from Vancoppenolle et al (2009).</t>
+  </si>
+  <si>
+    <t>1 layer of snow with constant properties</t>
+  </si>
+  <si>
+    <t>Snow fraction is always 100%.</t>
+  </si>
+  <si>
+    <t>modified Elastic-Viscous-Plastic</t>
+  </si>
+  <si>
+    <t>Ice dynamics follow from the works of Hibler (1979). The stress tensor is treated following the revisited EVP approach of Bouillon et al (2013). The ice strength follows the heuristic approach of Hibler 1979. Ice properties are transported by advection using the second-order momentum scheme of Prather (1986). Non-uniform velocity field leads to the redistribution of ice properties within categories through riding and rafting following Vancoppenolle et al. (2009).</t>
+  </si>
+  <si>
+    <t>Incremental re-mapping</t>
+  </si>
+  <si>
+    <t>Energy conserving halo-thermodynamics</t>
+  </si>
+  <si>
+    <t>Sea ice thermodynamics conserve water mass, heat and salt mass. Ice gains mass through basal growth, snow ice formation, new ice in open water and refreezing of seawater into newly formed ridges; ice loses mass by surface and basal melting. Snow gains mass by precipitation and loses mass by melting, snow ice formation and sublimation.The internal temperature profile derives from the heat diffusion equation using S- and T-dependent expressions for enthalpy (Bitz and Lispcomb, 1999) and thermal conductivity (Pringle et al. 2007). The salt entrapment and drainage parameterization follow from Vancoppenolle et al. (2009): each category is characterised by a dynamic mean salinity, from which a profile shape is derived for the computation of the vertical diffusion of heat.</t>
+  </si>
+  <si>
+    <t>Atmosphere and ocean fluxes provide energy to the sea ice system, which either contributes to warming or to mass changes. Energy is conserved in the sea ice model and followed process by process, making sure any input of energy will translate into changes in ice heat content.</t>
+  </si>
+  <si>
+    <t>parametrized (calculated in the ocean)</t>
+  </si>
+  <si>
+    <t>The heat content of precipitation is supposedly given by the atmospheric component.</t>
+  </si>
+  <si>
+    <t>All liquid precipitation goes to the ocean. A fraction of solid precipitation goes into the ocean as well.</t>
+  </si>
+  <si>
+    <t>Ice gains mass by basal growth, snow ice formation, new ice in open water and refreezing of seawater into newly formed ridges; ice loses mass by surface and basal melting.</t>
+  </si>
+  <si>
+    <t>If seawater at the freezing point loses heat, a volume of new ice forms. The thickness of this new ice volume is specified using a prescribed thickness h0. The fractional area is computed accordingly. New ice temperature is the freezing point. New ice salinity is given by Kovacs (1996).</t>
+  </si>
+  <si>
+    <t>Formulations used follow from the approach of Maykut and Untersteiner (1971), updated by Bitz and Lipscomb (1999), where any imbalance at the ice-ocean and ice atmosphere interfaces between external heat supply and inner conduction is converted into a mass gain or loss.</t>
+  </si>
+  <si>
+    <t>No lateral melting</t>
+  </si>
+  <si>
+    <t>There is no frazil ice formation other than new ice formation.</t>
+  </si>
+  <si>
+    <t>The salt entrapment and drainage parameterization follow from Vancoppenolle et al. (2009): each category is characterised by a dynamic mean salinity, from which a profile shape is derived for the computation of the vertical diffusion of heat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prognostic vertically-averaged salinity with diagnostic profile. </t>
+  </si>
+  <si>
+    <t>Prognostic vertically-averaged salinity changes due to salt entrapment during growth and snow-ice formation, to gravity drainage and flushing. Profile is linear with zero-surface value for S≤2, constant for S≥4 and a mixture of both extremes in between.</t>
+  </si>
+  <si>
+    <t>Ice thickness distribution is explicitly resolved. Thermodynamics are computed for each category. Transport in thickness space follows from Lipscomb (2001). Mechanical redistribution due to ridgng and rafting follows form Vancoppenolle et al. (2009).</t>
+  </si>
+  <si>
+    <t>No floe size distribution</t>
+  </si>
+  <si>
+    <t>There are no melt ponds in the model. Just the albedo calculation implicitly accounts for melt ponds through a prescribed decrease of surface albedo whenever surface is melting.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Snow is represented using one layer with constant thermal properties. Snow gains mass due to precipitation and loses mass due to surface melting, snow ice formation and sublimation.</t>
+  </si>
+  <si>
+    <t>Snow ice forms when freeboard is negative. The thickness of new snow ice is equal to minus the negative freeboard. Snow lying below sea level is assumed to be infiltrated by refreezing seawater, giving its heat and salt content.</t>
+  </si>
+  <si>
+    <t>Ridging puts half of the snow volume into seawater</t>
+  </si>
+  <si>
+    <t>Broadband Beer-Lambert law</t>
+  </si>
+  <si>
+    <t>The broadband surface albedo of each ice category empirically depends on ice thickness, snow depth, surface temperature and cloud fraction, based on a reformulation of the Shine and Henderson-Sellers (1985) parameterization, that solves a few inconsistencies associated with state transitions (e.g. snow / no snow) following Grenfell and Perovich (2004), and tuned to match observations of Brandt et al (2005). In presence of snow, all transmitted radiation is absorbed by the surface. Ice transmits some radiation, with an attenuation coefficient of 1m.-1.</t>
+  </si>
+  <si>
+    <t>fonction of temperature and sea ice + snow thickness</t>
+  </si>
+  <si>
+    <t>Exponential attenuation per category.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -1979,11 +2135,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2057,6 +2218,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2091,6 +2253,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2266,24 +2429,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="23.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2291,7 +2454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="23.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2299,7 +2462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="23.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2307,7 +2470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="23.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2315,7 +2478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="23.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2323,32 +2486,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="23.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="23.25">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="23.25">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="23.25">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="23.25">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="23.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -2356,7 +2519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="23.25">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -2364,7 +2527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="23.25">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -2382,19 +2545,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="200.7109375" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -2402,7 +2567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="18">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
@@ -2410,7 +2575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -2423,10 +2588,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:2">
+    <row r="6" spans="1:2" ht="18">
+      <c r="B6" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -2434,7 +2601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="15.75">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -2447,8 +2614,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:2" ht="18">
+      <c r="B11" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18">
+      <c r="B12" s="11" t="s">
+        <v>581</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2456,12 +2630,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD177"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL184"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="200.7109375" customWidth="1"/>
@@ -2503,15 +2679,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>39</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2519,26 +2695,28 @@
         <v>26</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2546,41 +2724,41 @@
         <v>26</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>50</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
@@ -2588,32 +2766,34 @@
         <v>26</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:38" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" ht="40.5" customHeight="1">
+      <c r="B24" s="11" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="26" spans="1:38" ht="24" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="24" customHeight="1">
       <c r="A27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="24" customHeight="1">
@@ -2623,852 +2803,1220 @@
     </row>
     <row r="29" spans="1:38" ht="24" customHeight="1">
       <c r="B29" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AA29" s="5" t="s">
+      <c r="AD29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AB29" s="5" t="s">
+      <c r="AE29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AC29" s="5" t="s">
+      <c r="AF29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AD29" s="5" t="s">
+      <c r="AG29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AE29" s="5" t="s">
+      <c r="AH29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AF29" s="5" t="s">
+      <c r="AI29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AG29" s="5" t="s">
+      <c r="AJ29" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AH29" s="5" t="s">
+      <c r="AK29" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AI29" s="5" t="s">
+      <c r="AL29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AJ29" s="5" t="s">
+    </row>
+    <row r="30" spans="1:38" ht="24" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL31" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" ht="24" customHeight="1">
+      <c r="B32" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL32" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" ht="24" customHeight="1">
+      <c r="B33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL33" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" ht="24" customHeight="1">
+      <c r="B34" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="AA34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL34" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" ht="24" customHeight="1">
+      <c r="B35" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL35" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" ht="24" customHeight="1">
+      <c r="B36" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL36" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" ht="24" customHeight="1">
+      <c r="B37" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL37" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" ht="24" customHeight="1">
+      <c r="A39" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AK29" s="5" t="s">
+      <c r="B39" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AL29" s="5" t="s">
+    </row>
+    <row r="40" spans="1:38" ht="24" customHeight="1">
+      <c r="B40" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="24" customHeight="1">
-      <c r="A32" s="12" t="s">
+    <row r="42" spans="1:38" ht="24" customHeight="1">
+      <c r="A42" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B42" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" ht="24" customHeight="1">
+      <c r="A43" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" ht="24" customHeight="1">
-      <c r="B33" s="13" t="s">
+      <c r="C43" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="A35" s="7" t="s">
+    <row r="44" spans="1:38" ht="24" customHeight="1">
+      <c r="B44" s="11"/>
+    </row>
+    <row r="46" spans="1:38" ht="24" customHeight="1">
+      <c r="A46" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="A36" s="8" t="s">
+      <c r="B46" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" ht="24" customHeight="1">
+      <c r="A47" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" ht="24" customHeight="1">
+      <c r="B48" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC48" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1">
+      <c r="A50" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1">
+      <c r="A51" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1">
+      <c r="B52" s="11"/>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1">
+      <c r="A55" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1">
+      <c r="B56" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1">
+      <c r="A58" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="A59" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1">
-      <c r="A39" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="A40" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
-      <c r="AA41" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB41" s="5" t="s">
+      <c r="B59" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="42" customHeight="1">
+      <c r="B60" s="11" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="24" customHeight="1">
+      <c r="A62" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
+      <c r="A63" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1">
+      <c r="B64" s="11" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
+      <c r="A66" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="A67" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="24" customHeight="1">
+      <c r="B68" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="A70" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="A71" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="B72" s="11">
+        <v>120184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="A75" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="B76" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="24" customHeight="1">
+      <c r="A78" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="A79" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="24" customHeight="1">
+      <c r="B80" s="11" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="A83" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="B84" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B85" s="11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="A88" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24.75" customHeight="1">
+      <c r="B89" s="11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="42" customHeight="1">
+      <c r="B94" s="11" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="A96" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="A97" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="B98" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="B99" s="11" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="A101" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="A102" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="B103" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="B104" s="11" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="24" customHeight="1">
+      <c r="A107" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1">
+      <c r="B108" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1">
+      <c r="A110" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="24" customHeight="1">
+      <c r="A111" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1">
+      <c r="B112" s="11"/>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="A114" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="24" customHeight="1">
+      <c r="A115" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AC41" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="A43" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1">
-      <c r="A44" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
-    </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="8" t="s">
+      <c r="B115" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="B116" s="11">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="24" customHeight="1">
+      <c r="A118" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="24" customHeight="1">
+      <c r="A119" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1">
+      <c r="B120" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="24" customHeight="1">
+      <c r="A122" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="24" customHeight="1">
+      <c r="A123" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="24" customHeight="1">
+      <c r="B124" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1">
+      <c r="A126" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="24" customHeight="1">
+      <c r="A127" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="8" t="s">
+      <c r="B127" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="24" customHeight="1">
+      <c r="B128" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="37.5" customHeight="1">
+      <c r="B129" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="24" customHeight="1">
+      <c r="A132" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="24" customHeight="1">
+      <c r="B133" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="24" customHeight="1">
+      <c r="A135" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="24" customHeight="1">
+      <c r="A136" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="11"/>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="8" t="s">
+      <c r="B136" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="40.5" customHeight="1">
+      <c r="B137" s="11" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1">
+      <c r="A139" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="24" customHeight="1">
+      <c r="A140" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="11"/>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="A63" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="B65" s="11"/>
-    </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="A68" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="B69" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="A71" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="8" t="s">
+      <c r="B140" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="24" customHeight="1">
+      <c r="B141" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B142" s="11"/>
+    </row>
+    <row r="144" spans="1:3" ht="24" customHeight="1">
+      <c r="A144" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="24" customHeight="1">
+      <c r="A145" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B145" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="24" customHeight="1">
+      <c r="B146" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="75" customHeight="1">
+      <c r="B147" s="11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="24" customHeight="1">
+      <c r="A149" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="24" customHeight="1">
+      <c r="A150" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="24" customHeight="1">
+      <c r="B151" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="24" customHeight="1">
+      <c r="B152" s="11" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="24" customHeight="1">
+      <c r="A155" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="24" customHeight="1">
+      <c r="B156" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="24" customHeight="1">
+      <c r="A158" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="24" customHeight="1">
+      <c r="A159" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="24" customHeight="1">
+      <c r="B160" s="11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="162" spans="1:30" ht="24" customHeight="1">
+      <c r="A162" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B162" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="B73" s="11"/>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="A75" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="A76" s="8" t="s">
+    </row>
+    <row r="163" spans="1:30" ht="24" customHeight="1">
+      <c r="A163" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="B77" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="178" customHeight="1">
-      <c r="B78" s="11"/>
-    </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="A80" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="8" t="s">
+      <c r="B163" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="164" spans="1:30" ht="24" customHeight="1">
+      <c r="B164" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="1:30" ht="40.5" customHeight="1">
+      <c r="B165" s="11" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="167" spans="1:30" ht="24" customHeight="1">
+      <c r="A167" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="168" spans="1:30" ht="24" customHeight="1">
+      <c r="A168" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="169" spans="1:30" ht="24" customHeight="1">
+      <c r="B169" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:30" ht="24" customHeight="1">
+      <c r="B170" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA170" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB170" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC170" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD170" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="172" spans="1:30" ht="24" customHeight="1">
+      <c r="A172" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="173" spans="1:30" ht="24" customHeight="1">
+      <c r="A173" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="B82" s="11"/>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="8" t="s">
+      <c r="B173" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30" ht="24" customHeight="1">
+      <c r="B174" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="175" spans="1:30" ht="24" customHeight="1">
+      <c r="B175" s="11" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="24" customHeight="1">
+      <c r="A177" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="24" customHeight="1">
+      <c r="A178" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="24" customHeight="1">
+      <c r="B179" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="24" customHeight="1">
+      <c r="A181" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="24" customHeight="1">
+      <c r="A182" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="B92" s="11"/>
-    </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11"/>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="B113" s="11"/>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="B117" s="11"/>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="B126" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="178" customHeight="1">
-      <c r="B135" s="11"/>
-    </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="B139" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="B140" s="11"/>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="A143" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="B144" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="B145" s="11"/>
-    </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="A148" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B148" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="B149" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="A151" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="A152" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="B153" s="11"/>
-    </row>
-    <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="A155" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="A156" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="B157" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="178" customHeight="1">
-      <c r="B158" s="11"/>
-    </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="A160" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="161" spans="1:30" ht="24" customHeight="1">
-      <c r="A161" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="162" spans="1:30" ht="24" customHeight="1">
-      <c r="B162" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="163" spans="1:30" ht="24" customHeight="1">
-      <c r="B163" s="11"/>
-      <c r="AA163" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB163" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC163" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD163" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="165" spans="1:30" ht="24" customHeight="1">
-      <c r="A165" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="166" spans="1:30" ht="24" customHeight="1">
-      <c r="A166" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="167" spans="1:30" ht="24" customHeight="1">
-      <c r="B167" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="168" spans="1:30" ht="24" customHeight="1">
-      <c r="B168" s="11"/>
-    </row>
-    <row r="170" spans="1:30" ht="24" customHeight="1">
-      <c r="A170" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="171" spans="1:30" ht="24" customHeight="1">
-      <c r="A171" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C171" s="9" t="s">
+      <c r="B182" s="9" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="172" spans="1:30" ht="24" customHeight="1">
-      <c r="B172" s="11"/>
-    </row>
-    <row r="174" spans="1:30" ht="24" customHeight="1">
-      <c r="A174" s="7" t="s">
+      <c r="C182" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B174" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="175" spans="1:30" ht="24" customHeight="1">
-      <c r="A175" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="176" spans="1:30" ht="24" customHeight="1">
-      <c r="B176" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" ht="24" customHeight="1">
-      <c r="B177" s="11"/>
+    </row>
+    <row r="183" spans="1:3" ht="24" customHeight="1">
+      <c r="B183" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="24" customHeight="1">
+      <c r="B184" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>AA29:AL29</formula1>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
+      <formula1>AA48:AC48</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
-      <formula1>AA41:AC41</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52 B124 B120 B116">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B170">
+      <formula1>AA170:AD170</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B179">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B117">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B163">
-      <formula1>AA163:AD163</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B172">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:B37">
+      <formula1>AA29:AL29</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3476,12 +4024,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD123"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="200.7109375" customWidth="1"/>
@@ -3491,20 +4041,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>36</v>
@@ -3515,21 +4065,23 @@
         <v>26</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3537,39 +4089,41 @@
         <v>26</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="41.25" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -3577,182 +4131,192 @@
         <v>26</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AD27" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA31" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB31" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="AC31" s="5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-      <c r="AA31" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB31" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC31" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="AD31" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="24" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="24" customHeight="1">
+      <c r="B35" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA35" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB35" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="AC35" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
-      <c r="AA35" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB35" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC35" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="AD35" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11">
+        <v>5400</v>
+      </c>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
+      <c r="B43" s="11">
+        <v>45</v>
+      </c>
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -3760,50 +4324,52 @@
         <v>26</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" ht="178" customHeight="1">
-      <c r="B48" s="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="26.25" customHeight="1">
+      <c r="B48" s="11" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
@@ -3812,48 +4378,52 @@
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
-      <c r="B57" s="11"/>
+      <c r="B57" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="AA57" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AB57" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AC57" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AD57" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
-      <c r="B61" s="11"/>
+      <c r="B61" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3861,39 +4431,41 @@
         <v>26</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="B65" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="178" customHeight="1">
-      <c r="B66" s="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="26.25" customHeight="1">
+      <c r="B66" s="11" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="B70" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
@@ -3901,65 +4473,71 @@
         <v>26</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="B74" s="11"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="41.25" customHeight="1">
+      <c r="B74" s="11" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="B78" s="11"/>
+      <c r="B78" s="11" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="B82" s="11"/>
+      <c r="B82" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="A84" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
@@ -3967,26 +4545,28 @@
         <v>26</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
+      <c r="B87" s="11" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -3994,26 +4574,28 @@
         <v>26</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="B91" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="178" customHeight="1">
-      <c r="B92" s="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="58.5" customHeight="1">
+      <c r="B92" s="11" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -4021,39 +4603,39 @@
         <v>26</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="B96" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="178" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="177.95" customHeight="1">
       <c r="B97" s="11"/>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="A100" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="13" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -4061,65 +4643,71 @@
         <v>26</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
+      <c r="B105" s="11" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11"/>
+      <c r="B109" s="11" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="B113" s="11"/>
+      <c r="B113" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
       <c r="A115" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -4127,26 +4715,28 @@
         <v>26</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="B117" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="178" customHeight="1">
-      <c r="B118" s="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="27.75" customHeight="1">
+      <c r="B118" s="11" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
       <c r="A120" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -4154,18 +4744,18 @@
         <v>26</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="B122" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="178" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="177.95" customHeight="1">
       <c r="B123" s="11"/>
     </row>
   </sheetData>
@@ -4209,12 +4799,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="200.7109375" customWidth="1"/>
@@ -4224,20 +4816,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>36</v>
@@ -4248,21 +4840,23 @@
         <v>26</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -4270,138 +4864,144 @@
         <v>26</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="24" customHeight="1">
+      <c r="B15" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="AA15" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC15" s="5" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
-      <c r="AA15" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="AD15" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>617</v>
+      </c>
       <c r="AA19" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AD19" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
@@ -4410,34 +5010,36 @@
       </c>
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>346</v>
+      </c>
       <c r="AA28" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
@@ -4445,25 +5047,25 @@
         <v>354</v>
       </c>
       <c r="AA32" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB32" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC32" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD32" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE32" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="AB32" s="5" t="s">
+      <c r="AF32" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="AC32" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD32" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="AE32" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="AF32" s="5" t="s">
-        <v>359</v>
-      </c>
       <c r="AG32" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4489,12 +5091,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD215"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE215"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="200.7109375" customWidth="1"/>
@@ -4504,20 +5108,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>36</v>
@@ -4528,21 +5132,23 @@
         <v>26</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4550,41 +5156,41 @@
         <v>26</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="94.5" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>369</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
@@ -4592,172 +5198,181 @@
         <v>26</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="46.5" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="24" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC23" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="AD23" s="5" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
-      <c r="AA23" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="AB23" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="AC23" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AD23" s="5" t="s">
-        <v>383</v>
-      </c>
       <c r="AE23" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>385</v>
+      </c>
       <c r="AA27" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AA31" s="5" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AC31" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AD31" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="24" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>402</v>
+        <v>71</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>621</v>
       </c>
       <c r="AA35" s="5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AD35" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
@@ -4765,10 +5380,10 @@
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
@@ -4776,26 +5391,28 @@
         <v>26</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" ht="178" customHeight="1">
-      <c r="B44" s="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="24.75" customHeight="1">
+      <c r="B44" s="11" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
@@ -4803,39 +5420,41 @@
         <v>26</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="24" customHeight="1">
       <c r="B48" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="178" customHeight="1">
-      <c r="B49" s="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="22.5" customHeight="1">
+      <c r="B49" s="11" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="12" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="13" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -4843,21 +5462,23 @@
         <v>26</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="11"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="40.5" customHeight="1">
+      <c r="B57" s="11" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -4865,28 +5486,28 @@
         <v>26</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="178" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="45" customHeight="1">
       <c r="B62" s="11" t="s">
-        <v>428</v>
+        <v>625</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
@@ -4894,57 +5515,64 @@
         <v>26</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
       <c r="B66" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" ht="178" customHeight="1">
-      <c r="B67" s="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="43.5" customHeight="1">
+      <c r="B67" s="11" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
       <c r="A69" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>627</v>
+      </c>
       <c r="AA71" s="5" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AB71" s="5" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AC71" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
@@ -4952,26 +5580,26 @@
         <v>26</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" ht="178" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" ht="177.95" customHeight="1">
       <c r="B76" s="11"/>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
       <c r="A78" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
@@ -4979,39 +5607,41 @@
         <v>26</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
       <c r="B80" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="178" customHeight="1">
-      <c r="B81" s="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="31.5" customHeight="1">
+      <c r="B81" s="11" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="B85" s="13" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -5019,123 +5649,134 @@
         <v>26</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="B89" s="11"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="40.5" customHeight="1">
+      <c r="B89" s="11" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
+      <c r="B93" s="11" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
+      <c r="B97" s="11" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
       <c r="A100" s="12" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
       <c r="B101" s="13" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="24" customHeight="1">
       <c r="A103" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="24" customHeight="1">
       <c r="A104" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
+      <c r="B105" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>630</v>
+      </c>
       <c r="AA105" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AB105" s="5" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AC105" s="5" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AD105" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="24" customHeight="1">
       <c r="A107" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
@@ -5143,10 +5784,10 @@
     </row>
     <row r="111" spans="1:30" ht="24" customHeight="1">
       <c r="A111" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
@@ -5154,84 +5795,91 @@
         <v>26</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="113" spans="1:30" ht="24" customHeight="1">
       <c r="B113" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="114" spans="1:30" ht="178" customHeight="1">
-      <c r="B114" s="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30" ht="43.5" customHeight="1">
+      <c r="B114" s="11" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="117" spans="1:30" ht="24" customHeight="1">
       <c r="A117" s="12" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="118" spans="1:30" ht="24" customHeight="1">
       <c r="B118" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="120" spans="1:30" ht="24" customHeight="1">
       <c r="A120" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="121" spans="1:30" ht="24" customHeight="1">
       <c r="A121" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:30" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
+      <c r="B122" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>630</v>
+      </c>
       <c r="AA122" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AB122" s="5" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AC122" s="5" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AD122" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:30" ht="24" customHeight="1">
       <c r="A124" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:30" ht="24" customHeight="1">
       <c r="A125" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="1:30" ht="24" customHeight="1">
@@ -5239,10 +5887,10 @@
     </row>
     <row r="128" spans="1:30" ht="24" customHeight="1">
       <c r="A128" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:29" ht="24" customHeight="1">
@@ -5250,39 +5898,41 @@
         <v>26</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="B130" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" spans="1:29" ht="178" customHeight="1">
-      <c r="B131" s="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" ht="42" customHeight="1">
+      <c r="B131" s="11" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
       <c r="A134" s="12" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
       <c r="B135" s="13" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
@@ -5290,65 +5940,69 @@
         <v>26</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="139" spans="1:29" ht="24" customHeight="1">
-      <c r="B139" s="11"/>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" ht="45" customHeight="1">
+      <c r="B139" s="11" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="141" spans="1:29" ht="24" customHeight="1">
       <c r="A141" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="142" spans="1:29" ht="24" customHeight="1">
       <c r="A142" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
-      <c r="B143" s="11"/>
+      <c r="B143" s="11" t="s">
+        <v>490</v>
+      </c>
       <c r="AA143" s="5" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AB143" s="5" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="AC143" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="146" spans="1:29" ht="24" customHeight="1">
       <c r="A146" s="12" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="147" spans="1:29" ht="24" customHeight="1">
       <c r="B147" s="13" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="149" spans="1:29" ht="24" customHeight="1">
       <c r="A149" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:29" ht="24" customHeight="1">
@@ -5356,52 +6010,54 @@
         <v>26</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="151" spans="1:29" ht="24" customHeight="1">
-      <c r="B151" s="11"/>
+      <c r="B151" s="11" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="153" spans="1:29" ht="24" customHeight="1">
       <c r="A153" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="154" spans="1:29" ht="24" customHeight="1">
       <c r="A154" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="1:29" ht="24" customHeight="1">
       <c r="B155" s="11"/>
       <c r="AA155" s="5" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AB155" s="5" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="AC155" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="157" spans="1:29" ht="24" customHeight="1">
       <c r="A157" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="158" spans="1:29" ht="24" customHeight="1">
@@ -5409,39 +6065,39 @@
         <v>26</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="159" spans="1:29" ht="24" customHeight="1">
       <c r="B159" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="160" spans="1:29" ht="178" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29" ht="177.95" customHeight="1">
       <c r="B160" s="11"/>
     </row>
     <row r="163" spans="1:29" ht="24" customHeight="1">
       <c r="A163" s="12" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
       <c r="B164" s="13" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
       <c r="A166" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:29" ht="24" customHeight="1">
@@ -5449,87 +6105,94 @@
         <v>26</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="168" spans="1:29" ht="24" customHeight="1">
-      <c r="B168" s="11"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29" ht="45" customHeight="1">
+      <c r="B168" s="11" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
       <c r="A170" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
       <c r="A171" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="172" spans="1:29" ht="24" customHeight="1">
-      <c r="B172" s="11"/>
+      <c r="B172" s="11" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
       <c r="A174" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
       <c r="A175" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
       <c r="B176" s="11" t="s">
-        <v>526</v>
+        <v>71</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>635</v>
       </c>
       <c r="AA176" s="5" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="AB176" s="5" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="AC176" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="178" spans="1:30" ht="24" customHeight="1">
       <c r="A178" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="179" spans="1:30" ht="24" customHeight="1">
       <c r="A179" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="180" spans="1:30" ht="24" customHeight="1">
@@ -5540,37 +6203,37 @@
     <row r="181" spans="1:30" ht="24" customHeight="1">
       <c r="B181" s="11"/>
       <c r="AA181" s="5" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="AB181" s="5" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="AC181" s="5" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AD181" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="184" spans="1:30" ht="24" customHeight="1">
       <c r="A184" s="12" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="185" spans="1:30" ht="24" customHeight="1">
       <c r="B185" s="13" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="187" spans="1:30" ht="24" customHeight="1">
       <c r="A187" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188" spans="1:30" ht="24" customHeight="1">
@@ -5578,43 +6241,47 @@
         <v>26</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="189" spans="1:30" ht="24" customHeight="1">
-      <c r="B189" s="11"/>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30" ht="43.5" customHeight="1">
+      <c r="B189" s="11" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="191" spans="1:30" ht="24" customHeight="1">
       <c r="A191" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="192" spans="1:30" ht="24" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
-      <c r="B193" s="11"/>
+      <c r="B193" s="11" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="195" spans="1:3" ht="24" customHeight="1">
       <c r="A195" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="24" customHeight="1">
@@ -5622,48 +6289,50 @@
         <v>26</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="24" customHeight="1">
       <c r="B197" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="178" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="177.95" customHeight="1">
       <c r="B198" s="11"/>
     </row>
     <row r="200" spans="1:3" ht="24" customHeight="1">
       <c r="A200" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="24" customHeight="1">
       <c r="A201" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="24" customHeight="1">
-      <c r="B202" s="11"/>
+      <c r="B202" s="11" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="204" spans="1:3" ht="24" customHeight="1">
       <c r="A204" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="24" customHeight="1">
@@ -5671,26 +6340,28 @@
         <v>26</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="24" customHeight="1">
       <c r="B206" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="178" customHeight="1">
-      <c r="B207" s="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="43.5" customHeight="1">
+      <c r="B207" s="11" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="209" spans="1:29" ht="24" customHeight="1">
       <c r="A209" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="210" spans="1:29" ht="24" customHeight="1">
@@ -5698,48 +6369,48 @@
         <v>26</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="211" spans="1:29" ht="24" customHeight="1">
       <c r="B211" s="11" t="s">
-        <v>561</v>
+        <v>638</v>
       </c>
     </row>
     <row r="213" spans="1:29" ht="24" customHeight="1">
       <c r="A213" s="7" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="214" spans="1:29" ht="24" customHeight="1">
       <c r="A214" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
     </row>
     <row r="215" spans="1:29" ht="24" customHeight="1">
       <c r="B215" s="11" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="AA215" s="5" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="AB215" s="5" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="AC215" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -5757,8 +6428,8 @@
       <formula1>AA35:AD35</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
       <formula1>AA71:AC71</formula1>
@@ -5773,15 +6444,15 @@
       <formula1>AA105:AD105</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122">
       <formula1>AA122:AD122</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B126">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B143">
       <formula1>AA143:AC143</formula1>
@@ -5813,12 +6484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="200.7109375" customWidth="1"/>
@@ -5828,20 +6501,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>36</v>
@@ -5852,21 +6525,23 @@
         <v>26</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -5874,73 +6549,78 @@
         <v>26</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="82.5" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>581</v>
+        <v>71</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>641</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5949,18 +6629,23 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>642</v>
+      </c>
       <c r="AA20" s="5" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_seaice.xlsx
+++ b/cmip6/models/ipsl-cm6a-lr/cmip6_ipsl_ipsl-cm6a-lr_seaice.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/repos/institutional/ipsl/cmip6/models/ipsl-cm6a-lr/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8F66E9-A92C-B749-AE20-D20D301C0053}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="27780" windowHeight="16360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <sheet name="4. Thermodynamics" sheetId="6" r:id="rId6"/>
     <sheet name="5. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1749,8 +1755,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1946,6 +1952,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1992,7 +2006,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2024,9 +2038,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2058,6 +2090,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2233,24 +2283,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2258,7 +2308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2266,7 +2316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2274,7 +2324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2282,7 +2332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2290,27 +2340,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2318,7 +2368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2326,7 +2376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2334,7 +2384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2342,13 +2392,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -2356,54 +2406,54 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
@@ -2411,27 +2461,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
@@ -2439,42 +2489,42 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Dynamics,Thermodynamics,Radiative Processes"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD157"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AL157"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>36</v>
       </c>
@@ -2482,12 +2532,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>39</v>
       </c>
@@ -2495,7 +2545,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
@@ -2506,12 +2556,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>45</v>
       </c>
@@ -2519,7 +2569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
@@ -2530,17 +2580,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>51</v>
       </c>
@@ -2548,7 +2598,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>41</v>
       </c>
@@ -2559,17 +2609,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
+    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="24" customHeight="1">
+    <row r="19" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>57</v>
       </c>
@@ -2577,12 +2627,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="24" customHeight="1">
+    <row r="20" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="24" customHeight="1">
+    <row r="22" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>60</v>
       </c>
@@ -2590,7 +2640,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="24" customHeight="1">
+    <row r="23" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>62</v>
       </c>
@@ -2601,12 +2651,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="24" customHeight="1">
+    <row r="24" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="24" customHeight="1">
+    <row r="25" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>65</v>
       </c>
@@ -2647,7 +2697,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="24" customHeight="1">
+    <row r="26" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
         <v>68</v>
       </c>
@@ -2688,7 +2738,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="24" customHeight="1">
+    <row r="27" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>69</v>
       </c>
@@ -2729,7 +2779,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="24" customHeight="1">
+    <row r="28" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>70</v>
       </c>
@@ -2770,7 +2820,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="24" customHeight="1">
+    <row r="29" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>71</v>
       </c>
@@ -2811,7 +2861,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="24" customHeight="1">
+    <row r="30" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>77</v>
       </c>
@@ -2852,7 +2902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="24" customHeight="1">
+    <row r="31" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>72</v>
       </c>
@@ -2893,7 +2943,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="24" customHeight="1">
+    <row r="32" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>77</v>
       </c>
@@ -2934,7 +2984,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="24" customHeight="1">
+    <row r="33" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>73</v>
       </c>
@@ -2975,7 +3025,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="24" customHeight="1">
+    <row r="36" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>78</v>
       </c>
@@ -2983,12 +3033,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="24" customHeight="1">
+    <row r="37" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="24" customHeight="1">
+    <row r="39" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>81</v>
       </c>
@@ -2996,7 +3046,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="24" customHeight="1">
+    <row r="40" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>62</v>
       </c>
@@ -3007,7 +3057,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="24" customHeight="1">
+    <row r="41" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
         <v>85</v>
       </c>
@@ -3021,7 +3071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="24" customHeight="1">
+    <row r="43" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>87</v>
       </c>
@@ -3029,7 +3079,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="24" customHeight="1">
+    <row r="44" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>89</v>
       </c>
@@ -3040,10 +3090,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="24" customHeight="1">
+    <row r="45" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="11"/>
     </row>
-    <row r="48" spans="1:38" ht="24" customHeight="1">
+    <row r="48" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>92</v>
       </c>
@@ -3051,12 +3101,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
+    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
+    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>95</v>
       </c>
@@ -3064,7 +3114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
+    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>41</v>
       </c>
@@ -3075,12 +3125,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
+    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
+    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>99</v>
       </c>
@@ -3088,7 +3138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
+    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>41</v>
       </c>
@@ -3099,12 +3149,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
+    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
+    <row r="59" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>104</v>
       </c>
@@ -3112,7 +3162,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
+    <row r="60" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>106</v>
       </c>
@@ -3123,12 +3173,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
+    <row r="61" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="11">
         <v>120184</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
+    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>109</v>
       </c>
@@ -3136,12 +3186,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
+    <row r="65" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
+    <row r="67" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>112</v>
       </c>
@@ -3149,7 +3199,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1">
+    <row r="68" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>41</v>
       </c>
@@ -3160,17 +3210,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
+    <row r="69" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="178" customHeight="1">
+    <row r="70" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
+    <row r="72" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>117</v>
       </c>
@@ -3178,7 +3228,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
+    <row r="73" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
         <v>41</v>
       </c>
@@ -3189,12 +3239,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
+    <row r="74" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
+    <row r="76" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>122</v>
       </c>
@@ -3202,7 +3252,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
+    <row r="77" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>41</v>
       </c>
@@ -3213,17 +3263,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
+    <row r="78" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
+    <row r="79" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
+    <row r="81" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>127</v>
       </c>
@@ -3231,7 +3281,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
+    <row r="82" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>41</v>
       </c>
@@ -3242,17 +3292,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
+    <row r="83" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
+    <row r="84" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
+    <row r="86" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>132</v>
       </c>
@@ -3260,7 +3310,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
+    <row r="87" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
         <v>41</v>
       </c>
@@ -3271,17 +3321,17 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
+    <row r="88" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
+    <row r="89" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
+    <row r="92" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>137</v>
       </c>
@@ -3289,12 +3339,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
+    <row r="93" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
+    <row r="95" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>140</v>
       </c>
@@ -3302,7 +3352,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
+    <row r="96" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
         <v>89</v>
       </c>
@@ -3313,12 +3363,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
+    <row r="97" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="11">
         <v>20000</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
+    <row r="99" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>144</v>
       </c>
@@ -3326,7 +3376,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
+    <row r="100" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
         <v>89</v>
       </c>
@@ -3337,12 +3387,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
+    <row r="101" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="11">
         <v>0.3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
+    <row r="103" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>148</v>
       </c>
@@ -3350,7 +3400,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
+    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
         <v>89</v>
       </c>
@@ -3361,12 +3411,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
+    <row r="105" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
+    <row r="107" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>152</v>
       </c>
@@ -3374,7 +3424,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
+    <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
         <v>41</v>
       </c>
@@ -3385,17 +3435,17 @@
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
+    <row r="109" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="24" customHeight="1">
+    <row r="110" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
+    <row r="113" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>157</v>
       </c>
@@ -3403,12 +3453,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
+    <row r="114" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
+    <row r="116" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>160</v>
       </c>
@@ -3416,7 +3466,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1">
+    <row r="117" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
         <v>41</v>
       </c>
@@ -3427,15 +3477,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="24" customHeight="1">
+    <row r="118" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="178" customHeight="1">
+    <row r="119" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="11"/>
     </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
+    <row r="121" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>163</v>
       </c>
@@ -3443,7 +3493,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1">
+    <row r="122" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
         <v>41</v>
       </c>
@@ -3454,17 +3504,17 @@
         <v>166</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="24" customHeight="1">
+    <row r="123" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
+    <row r="124" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1">
+    <row r="126" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>168</v>
       </c>
@@ -3472,7 +3522,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="24" customHeight="1">
+    <row r="127" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
         <v>41</v>
       </c>
@@ -3483,17 +3533,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="24" customHeight="1">
+    <row r="128" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="24" customHeight="1">
+    <row r="129" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="24" customHeight="1">
+    <row r="132" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
         <v>173</v>
       </c>
@@ -3501,12 +3551,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="24" customHeight="1">
+    <row r="133" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="24" customHeight="1">
+    <row r="135" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
         <v>176</v>
       </c>
@@ -3514,7 +3564,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="24" customHeight="1">
+    <row r="136" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
         <v>41</v>
       </c>
@@ -3525,17 +3575,17 @@
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="24" customHeight="1">
+    <row r="137" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="178" customHeight="1">
+    <row r="138" spans="1:30" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="24" customHeight="1">
+    <row r="140" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>180</v>
       </c>
@@ -3543,7 +3593,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:30" ht="24" customHeight="1">
+    <row r="141" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
         <v>62</v>
       </c>
@@ -3554,12 +3604,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="24" customHeight="1">
+    <row r="142" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="24" customHeight="1">
+    <row r="143" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="11" t="s">
         <v>184</v>
       </c>
@@ -3576,7 +3626,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
+    <row r="145" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>187</v>
       </c>
@@ -3584,7 +3634,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
+    <row r="146" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
         <v>41</v>
       </c>
@@ -3595,17 +3645,17 @@
         <v>190</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="24" customHeight="1">
+    <row r="147" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
+    <row r="148" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="11" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="24" customHeight="1">
+    <row r="150" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>192</v>
       </c>
@@ -3613,7 +3663,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="24" customHeight="1">
+    <row r="151" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
         <v>194</v>
       </c>
@@ -3624,12 +3674,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="24" customHeight="1">
+    <row r="152" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
+    <row r="154" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>198</v>
       </c>
@@ -3637,7 +3687,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="24" customHeight="1">
+    <row r="155" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
         <v>41</v>
       </c>
@@ -3648,69 +3698,33 @@
         <v>201</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="24" customHeight="1">
+    <row r="156" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="24" customHeight="1">
+    <row r="157" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="17">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B33" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>AA25:AL25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>AA26:AL26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AL27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AL28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>AA29:AL29</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AL30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AL31</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>AA32:AL32</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>AA33:AL33</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>AA41:AC41</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45 B105 B101 B97" xr:uid="{00000000-0002-0000-0200-00000A000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B143">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B143" xr:uid="{00000000-0002-0000-0200-00000F000000}">
       <formula1>AA143:AD143</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152" xr:uid="{00000000-0002-0000-0200-000010000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3719,20 +3733,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AD107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>202</v>
       </c>
@@ -3740,12 +3754,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>205</v>
       </c>
@@ -3753,7 +3767,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
@@ -3764,12 +3778,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>208</v>
       </c>
@@ -3777,7 +3791,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
@@ -3788,17 +3802,17 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>212</v>
       </c>
@@ -3806,12 +3820,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="24" customHeight="1">
+    <row r="17" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>215</v>
       </c>
@@ -3819,7 +3833,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
+    <row r="18" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>62</v>
       </c>
@@ -3830,7 +3844,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
+    <row r="19" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>218</v>
       </c>
@@ -3847,7 +3861,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="24" customHeight="1">
+    <row r="21" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>221</v>
       </c>
@@ -3855,7 +3869,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1">
+    <row r="22" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>62</v>
       </c>
@@ -3866,7 +3880,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
+    <row r="23" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>225</v>
       </c>
@@ -3883,7 +3897,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="24" customHeight="1">
+    <row r="25" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>228</v>
       </c>
@@ -3891,7 +3905,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="24" customHeight="1">
+    <row r="26" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>62</v>
       </c>
@@ -3902,7 +3916,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
+    <row r="27" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>232</v>
       </c>
@@ -3919,7 +3933,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="24" customHeight="1">
+    <row r="29" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>235</v>
       </c>
@@ -3927,7 +3941,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1">
+    <row r="30" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>106</v>
       </c>
@@ -3938,12 +3952,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1">
+    <row r="31" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11">
         <v>5400</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
+    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>239</v>
       </c>
@@ -3951,7 +3965,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
+    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>106</v>
       </c>
@@ -3962,12 +3976,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="11">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>243</v>
       </c>
@@ -3975,7 +3989,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
+    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>41</v>
       </c>
@@ -3986,17 +4000,17 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="178" customHeight="1">
+    <row r="40" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
+    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>248</v>
       </c>
@@ -4004,12 +4018,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
+    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
+    <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>251</v>
       </c>
@@ -4017,7 +4031,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
+    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>62</v>
       </c>
@@ -4028,12 +4042,12 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
+    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1">
+    <row r="49" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
         <v>255</v>
       </c>
@@ -4050,7 +4064,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="24" customHeight="1">
+    <row r="51" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>258</v>
       </c>
@@ -4058,7 +4072,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1">
+    <row r="52" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>106</v>
       </c>
@@ -4069,12 +4083,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1">
+    <row r="53" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="24" customHeight="1">
+    <row r="55" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>262</v>
       </c>
@@ -4082,7 +4096,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="24" customHeight="1">
+    <row r="56" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>41</v>
       </c>
@@ -4093,17 +4107,17 @@
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1">
+    <row r="57" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="178" customHeight="1">
+    <row r="58" spans="1:30" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1">
+    <row r="61" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>266</v>
       </c>
@@ -4111,12 +4125,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1">
+    <row r="62" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="24" customHeight="1">
+    <row r="64" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>269</v>
       </c>
@@ -4124,7 +4138,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
+    <row r="65" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>194</v>
       </c>
@@ -4135,12 +4149,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
+    <row r="66" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1">
+    <row r="68" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>274</v>
       </c>
@@ -4148,7 +4162,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
+    <row r="69" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>106</v>
       </c>
@@ -4159,12 +4173,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
+    <row r="70" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
+    <row r="72" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>278</v>
       </c>
@@ -4172,7 +4186,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
+    <row r="73" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
         <v>41</v>
       </c>
@@ -4183,17 +4197,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
+    <row r="74" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
+    <row r="75" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="11" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
+    <row r="77" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>283</v>
       </c>
@@ -4201,7 +4215,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
+    <row r="78" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
         <v>41</v>
       </c>
@@ -4212,15 +4226,15 @@
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
+    <row r="79" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="178" customHeight="1">
+    <row r="80" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="11"/>
     </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
+    <row r="82" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>287</v>
       </c>
@@ -4228,7 +4242,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
+    <row r="83" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
         <v>41</v>
       </c>
@@ -4239,15 +4253,15 @@
         <v>290</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
+    <row r="84" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="178" customHeight="1">
+    <row r="85" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="11"/>
     </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
+    <row r="88" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>291</v>
       </c>
@@ -4255,12 +4269,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
+    <row r="89" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
+    <row r="91" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>294</v>
       </c>
@@ -4268,7 +4282,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
+    <row r="92" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>194</v>
       </c>
@@ -4279,12 +4293,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
+    <row r="93" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
+    <row r="95" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>298</v>
       </c>
@@ -4292,7 +4306,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
+    <row r="96" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
         <v>106</v>
       </c>
@@ -4303,12 +4317,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
+    <row r="97" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
+    <row r="99" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>302</v>
       </c>
@@ -4316,7 +4330,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
+    <row r="100" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
         <v>41</v>
       </c>
@@ -4327,17 +4341,17 @@
         <v>305</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
+    <row r="101" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="178" customHeight="1">
+    <row r="102" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="11" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
+    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>307</v>
       </c>
@@ -4345,7 +4359,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
+    <row r="105" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
         <v>41</v>
       </c>
@@ -4356,48 +4370,24 @@
         <v>309</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
+    <row r="106" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="178" customHeight="1">
+    <row r="107" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B49 B27 B23" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>AA19:AD19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>AA23:AD23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AD27</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B97 B70 B53 B35" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
-      <formula1>AA49:AD49</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B93" xr:uid="{00000000-0002-0000-0300-000007000000}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4405,20 +4395,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="24" customHeight="1">
+    <row r="1" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>310</v>
       </c>
@@ -4426,12 +4416,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="24" customHeight="1">
+    <row r="2" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="24" customHeight="1">
+    <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>313</v>
       </c>
@@ -4439,7 +4429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="24" customHeight="1">
+    <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
@@ -4450,12 +4440,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="24" customHeight="1">
+    <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="24" customHeight="1">
+    <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>317</v>
       </c>
@@ -4463,7 +4453,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="24" customHeight="1">
+    <row r="9" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
@@ -4474,17 +4464,17 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="24" customHeight="1">
+    <row r="10" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
+    <row r="11" spans="1:30" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="24" customHeight="1">
+    <row r="13" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>321</v>
       </c>
@@ -4492,7 +4482,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="24" customHeight="1">
+    <row r="14" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>62</v>
       </c>
@@ -4503,7 +4493,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="24" customHeight="1">
+    <row r="15" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>325</v>
       </c>
@@ -4520,7 +4510,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="24" customHeight="1">
+    <row r="17" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>328</v>
       </c>
@@ -4528,7 +4518,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="24" customHeight="1">
+    <row r="18" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>62</v>
       </c>
@@ -4539,7 +4529,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="24" customHeight="1">
+    <row r="19" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>332</v>
       </c>
@@ -4556,7 +4546,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="24" customHeight="1">
+    <row r="21" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>333</v>
       </c>
@@ -4564,7 +4554,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="24" customHeight="1">
+    <row r="22" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>62</v>
       </c>
@@ -4575,7 +4565,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="24" customHeight="1">
+    <row r="23" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>337</v>
       </c>
@@ -4589,7 +4579,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="24" customHeight="1">
+    <row r="25" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>339</v>
       </c>
@@ -4597,7 +4587,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="24" customHeight="1">
+    <row r="26" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>62</v>
       </c>
@@ -4608,12 +4598,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="24" customHeight="1">
+    <row r="27" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="24" customHeight="1">
+    <row r="28" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>343</v>
       </c>
@@ -4627,7 +4617,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="24" customHeight="1">
+    <row r="30" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>345</v>
       </c>
@@ -4635,7 +4625,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="24" customHeight="1">
+    <row r="31" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>62</v>
       </c>
@@ -4646,7 +4636,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="24" customHeight="1">
+    <row r="32" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
         <v>349</v>
@@ -4671,20 +4661,14 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>AA15:AD15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AD19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B28" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AC28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>AA32:AG32</formula1>
     </dataValidation>
   </dataValidations>
@@ -4693,20 +4677,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AE187"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>355</v>
       </c>
@@ -4714,12 +4700,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>358</v>
       </c>
@@ -4727,7 +4713,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
@@ -4738,12 +4724,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>362</v>
       </c>
@@ -4751,7 +4737,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
@@ -4762,17 +4748,17 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>366</v>
       </c>
@@ -4780,12 +4766,12 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="24" customHeight="1">
+    <row r="17" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>369</v>
       </c>
@@ -4793,7 +4779,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="24" customHeight="1">
+    <row r="18" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>62</v>
       </c>
@@ -4804,7 +4790,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="24" customHeight="1">
+    <row r="19" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>373</v>
       </c>
@@ -4824,7 +4810,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="24" customHeight="1">
+    <row r="21" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>377</v>
       </c>
@@ -4832,7 +4818,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="24" customHeight="1">
+    <row r="22" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>62</v>
       </c>
@@ -4843,7 +4829,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1">
+    <row r="23" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>381</v>
       </c>
@@ -4857,7 +4843,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="24" customHeight="1">
+    <row r="25" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>383</v>
       </c>
@@ -4865,7 +4851,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="24" customHeight="1">
+    <row r="26" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>62</v>
       </c>
@@ -4876,7 +4862,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="24" customHeight="1">
+    <row r="27" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>387</v>
       </c>
@@ -4893,7 +4879,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="24" customHeight="1">
+    <row r="29" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>390</v>
       </c>
@@ -4901,7 +4887,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="24" customHeight="1">
+    <row r="30" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>62</v>
       </c>
@@ -4912,7 +4898,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="24" customHeight="1">
+    <row r="31" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>77</v>
       </c>
@@ -4929,7 +4915,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
+    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>397</v>
       </c>
@@ -4937,7 +4923,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
+    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>89</v>
       </c>
@@ -4948,10 +4934,10 @@
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
     </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>401</v>
       </c>
@@ -4959,7 +4945,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
+    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>41</v>
       </c>
@@ -4970,17 +4956,17 @@
         <v>404</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="178" customHeight="1">
+    <row r="40" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
+    <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>406</v>
       </c>
@@ -4988,7 +4974,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
+    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>41</v>
       </c>
@@ -4999,17 +4985,17 @@
         <v>409</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
+    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="178" customHeight="1">
+    <row r="45" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
+    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>411</v>
       </c>
@@ -5017,12 +5003,12 @@
         <v>412</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="24" customHeight="1">
+    <row r="49" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="24" customHeight="1">
+    <row r="51" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>414</v>
       </c>
@@ -5030,7 +5016,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="24" customHeight="1">
+    <row r="52" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>41</v>
       </c>
@@ -5041,17 +5027,17 @@
         <v>417</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="24" customHeight="1">
+    <row r="53" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="178" customHeight="1">
+    <row r="54" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="24" customHeight="1">
+    <row r="56" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>419</v>
       </c>
@@ -5059,7 +5045,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="24" customHeight="1">
+    <row r="57" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>41</v>
       </c>
@@ -5070,17 +5056,17 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="24" customHeight="1">
+    <row r="58" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="178" customHeight="1">
+    <row r="59" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="11" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="24" customHeight="1">
+    <row r="61" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>424</v>
       </c>
@@ -5088,7 +5074,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="24" customHeight="1">
+    <row r="62" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>62</v>
       </c>
@@ -5099,7 +5085,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="24" customHeight="1">
+    <row r="63" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="11" t="s">
         <v>77</v>
       </c>
@@ -5113,7 +5099,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
+    <row r="65" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>430</v>
       </c>
@@ -5121,7 +5107,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
+    <row r="66" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>41</v>
       </c>
@@ -5132,15 +5118,15 @@
         <v>433</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
+    <row r="67" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="178" customHeight="1">
+    <row r="68" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="11"/>
     </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
+    <row r="70" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>434</v>
       </c>
@@ -5148,7 +5134,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
+    <row r="71" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>41</v>
       </c>
@@ -5159,17 +5145,17 @@
         <v>437</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
+    <row r="72" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="178" customHeight="1">
+    <row r="73" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="11" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
+    <row r="76" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>439</v>
       </c>
@@ -5177,12 +5163,12 @@
         <v>440</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
+    <row r="77" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="13" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
+    <row r="79" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>442</v>
       </c>
@@ -5190,7 +5176,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1">
+    <row r="80" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>194</v>
       </c>
@@ -5201,12 +5187,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="24" customHeight="1">
+    <row r="81" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="24" customHeight="1">
+    <row r="83" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>446</v>
       </c>
@@ -5214,7 +5200,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="24" customHeight="1">
+    <row r="84" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>194</v>
       </c>
@@ -5225,12 +5211,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="24" customHeight="1">
+    <row r="85" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="24" customHeight="1">
+    <row r="88" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>450</v>
       </c>
@@ -5238,12 +5224,12 @@
         <v>451</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="24" customHeight="1">
+    <row r="89" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="13" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="24" customHeight="1">
+    <row r="91" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>453</v>
       </c>
@@ -5251,7 +5237,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="24" customHeight="1">
+    <row r="92" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>62</v>
       </c>
@@ -5262,7 +5248,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="24" customHeight="1">
+    <row r="93" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="11" t="s">
         <v>77</v>
       </c>
@@ -5279,7 +5265,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="24" customHeight="1">
+    <row r="95" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>459</v>
       </c>
@@ -5287,7 +5273,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="24" customHeight="1">
+    <row r="96" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
         <v>89</v>
       </c>
@@ -5298,10 +5284,10 @@
         <v>462</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="24" customHeight="1">
+    <row r="97" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="11"/>
     </row>
-    <row r="99" spans="1:30" ht="24" customHeight="1">
+    <row r="99" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>463</v>
       </c>
@@ -5309,7 +5295,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="24" customHeight="1">
+    <row r="100" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
         <v>41</v>
       </c>
@@ -5320,17 +5306,17 @@
         <v>465</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="24" customHeight="1">
+    <row r="101" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="178" customHeight="1">
+    <row r="102" spans="1:30" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="11" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="24" customHeight="1">
+    <row r="105" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>467</v>
       </c>
@@ -5338,12 +5324,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="24" customHeight="1">
+    <row r="106" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="24" customHeight="1">
+    <row r="108" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>470</v>
       </c>
@@ -5351,7 +5337,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="24" customHeight="1">
+    <row r="109" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
         <v>62</v>
       </c>
@@ -5362,7 +5348,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="24" customHeight="1">
+    <row r="110" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="11" t="s">
         <v>77</v>
       </c>
@@ -5379,7 +5365,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="24" customHeight="1">
+    <row r="112" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>473</v>
       </c>
@@ -5387,7 +5373,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="24" customHeight="1">
+    <row r="113" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
         <v>89</v>
       </c>
@@ -5398,10 +5384,10 @@
         <v>474</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="24" customHeight="1">
+    <row r="114" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="11"/>
     </row>
-    <row r="116" spans="1:29" ht="24" customHeight="1">
+    <row r="116" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>475</v>
       </c>
@@ -5409,7 +5395,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="117" spans="1:29" ht="24" customHeight="1">
+    <row r="117" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
         <v>41</v>
       </c>
@@ -5420,17 +5406,17 @@
         <v>476</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="24" customHeight="1">
+    <row r="118" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="178" customHeight="1">
+    <row r="119" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="11" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="24" customHeight="1">
+    <row r="122" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
         <v>477</v>
       </c>
@@ -5438,12 +5424,12 @@
         <v>478</v>
       </c>
     </row>
-    <row r="123" spans="1:29" ht="24" customHeight="1">
+    <row r="123" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="13" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="24" customHeight="1">
+    <row r="125" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>480</v>
       </c>
@@ -5451,7 +5437,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="24" customHeight="1">
+    <row r="126" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
         <v>62</v>
       </c>
@@ -5462,7 +5448,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="127" spans="1:29" ht="24" customHeight="1">
+    <row r="127" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="11" t="s">
         <v>484</v>
       </c>
@@ -5476,7 +5462,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="130" spans="1:29" ht="24" customHeight="1">
+    <row r="130" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
         <v>486</v>
       </c>
@@ -5484,12 +5470,12 @@
         <v>487</v>
       </c>
     </row>
-    <row r="131" spans="1:29" ht="24" customHeight="1">
+    <row r="131" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="13" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="133" spans="1:29" ht="24" customHeight="1">
+    <row r="133" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>489</v>
       </c>
@@ -5497,7 +5483,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="134" spans="1:29" ht="24" customHeight="1">
+    <row r="134" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
         <v>62</v>
       </c>
@@ -5508,7 +5494,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="135" spans="1:29" ht="24" customHeight="1">
+    <row r="135" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="11"/>
       <c r="AA135" s="6" t="s">
         <v>484</v>
@@ -5520,7 +5506,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="137" spans="1:29" ht="24" customHeight="1">
+    <row r="137" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
         <v>493</v>
       </c>
@@ -5528,7 +5514,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="138" spans="1:29" ht="24" customHeight="1">
+    <row r="138" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
         <v>41</v>
       </c>
@@ -5539,15 +5525,15 @@
         <v>495</v>
       </c>
     </row>
-    <row r="139" spans="1:29" ht="24" customHeight="1">
+    <row r="139" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="178" customHeight="1">
+    <row r="140" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="11"/>
     </row>
-    <row r="143" spans="1:29" ht="24" customHeight="1">
+    <row r="143" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
         <v>496</v>
       </c>
@@ -5555,12 +5541,12 @@
         <v>497</v>
       </c>
     </row>
-    <row r="144" spans="1:29" ht="24" customHeight="1">
+    <row r="144" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="13" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="146" spans="1:30" ht="24" customHeight="1">
+    <row r="146" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>499</v>
       </c>
@@ -5568,7 +5554,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="147" spans="1:30" ht="24" customHeight="1">
+    <row r="147" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
         <v>194</v>
       </c>
@@ -5579,12 +5565,12 @@
         <v>502</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="24" customHeight="1">
+    <row r="148" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="150" spans="1:30" ht="24" customHeight="1">
+    <row r="150" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>503</v>
       </c>
@@ -5592,7 +5578,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="151" spans="1:30" ht="24" customHeight="1">
+    <row r="151" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
         <v>62</v>
       </c>
@@ -5603,7 +5589,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="152" spans="1:30" ht="24" customHeight="1">
+    <row r="152" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="11" t="s">
         <v>77</v>
       </c>
@@ -5617,7 +5603,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="1:30" ht="24" customHeight="1">
+    <row r="154" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>509</v>
       </c>
@@ -5625,7 +5611,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="155" spans="1:30" ht="24" customHeight="1">
+    <row r="155" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
         <v>62</v>
       </c>
@@ -5636,12 +5622,12 @@
         <v>512</v>
       </c>
     </row>
-    <row r="156" spans="1:30" ht="24" customHeight="1">
+    <row r="156" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:30" ht="24" customHeight="1">
+    <row r="157" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
         <v>513</v>
@@ -5656,7 +5642,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="160" spans="1:30" ht="24" customHeight="1">
+    <row r="160" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
         <v>516</v>
       </c>
@@ -5664,12 +5650,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="24" customHeight="1">
+    <row r="161" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="13" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="24" customHeight="1">
+    <row r="163" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
         <v>519</v>
       </c>
@@ -5677,7 +5663,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="24" customHeight="1">
+    <row r="164" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
         <v>194</v>
       </c>
@@ -5688,12 +5674,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1">
+    <row r="165" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="24" customHeight="1">
+    <row r="167" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>523</v>
       </c>
@@ -5701,7 +5687,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="24" customHeight="1">
+    <row r="168" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="14" t="s">
         <v>41</v>
       </c>
@@ -5712,15 +5698,15 @@
         <v>526</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="24" customHeight="1">
+    <row r="169" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="178" customHeight="1">
+    <row r="170" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="11"/>
     </row>
-    <row r="172" spans="1:3" ht="24" customHeight="1">
+    <row r="172" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>527</v>
       </c>
@@ -5728,7 +5714,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="24" customHeight="1">
+    <row r="173" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="14" t="s">
         <v>194</v>
       </c>
@@ -5739,12 +5725,12 @@
         <v>530</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="24" customHeight="1">
+    <row r="174" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="24" customHeight="1">
+    <row r="176" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>531</v>
       </c>
@@ -5752,7 +5738,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="177" spans="1:29" ht="24" customHeight="1">
+    <row r="177" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="14" t="s">
         <v>41</v>
       </c>
@@ -5763,17 +5749,17 @@
         <v>534</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="24" customHeight="1">
+    <row r="178" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="178" customHeight="1">
+    <row r="179" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="11" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="24" customHeight="1">
+    <row r="181" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
         <v>536</v>
       </c>
@@ -5781,7 +5767,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="182" spans="1:29" ht="24" customHeight="1">
+    <row r="182" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="14" t="s">
         <v>41</v>
       </c>
@@ -5792,12 +5778,12 @@
         <v>538</v>
       </c>
     </row>
-    <row r="183" spans="1:29" ht="24" customHeight="1">
+    <row r="183" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="11" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="185" spans="1:29" ht="24" customHeight="1">
+    <row r="185" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
         <v>540</v>
       </c>
@@ -5805,7 +5791,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="186" spans="1:29" ht="24" customHeight="1">
+    <row r="186" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="14" t="s">
         <v>62</v>
       </c>
@@ -5816,7 +5802,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="187" spans="1:29" ht="24" customHeight="1">
+    <row r="187" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="11"/>
       <c r="AA187" s="6" t="s">
         <v>543</v>
@@ -5829,69 +5815,22 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>AA19:AE19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B187 B152 B135 B127 B63" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>AA23:AC23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B157 B110 B93 B31" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>AA27:AD27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AD31</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B114 B97" xr:uid="{00000000-0002-0000-0500-000004000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AC63</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81 B174 B165 B148 B85" xr:uid="{00000000-0002-0000-0500-000006000000}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>AA93:AD93</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
-      <formula1>AA110:AD110</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
-      <formula1>AA127:AC127</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>AA135:AC135</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B148">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152">
-      <formula1>AA152:AC152</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B157">
-      <formula1>AA157:AD157</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B174">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B187">
-      <formula1>AA187:AC187</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5899,20 +5838,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="24" customHeight="1">
+    <row r="1" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>545</v>
       </c>
@@ -5920,12 +5859,12 @@
         <v>546</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="24" customHeight="1">
+    <row r="2" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="24" customHeight="1">
+    <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>548</v>
       </c>
@@ -5933,7 +5872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="24" customHeight="1">
+    <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
@@ -5944,12 +5883,12 @@
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="24" customHeight="1">
+    <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="24" customHeight="1">
+    <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>552</v>
       </c>
@@ -5957,7 +5896,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="24" customHeight="1">
+    <row r="9" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
@@ -5968,17 +5907,17 @@
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="24" customHeight="1">
+    <row r="10" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
+    <row r="11" spans="1:30" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="24" customHeight="1">
+    <row r="13" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>556</v>
       </c>
@@ -5986,7 +5925,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="24" customHeight="1">
+    <row r="14" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>62</v>
       </c>
@@ -5997,7 +5936,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="24" customHeight="1">
+    <row r="15" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>77</v>
       </c>
@@ -6014,7 +5953,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="24" customHeight="1">
+    <row r="17" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>563</v>
       </c>
@@ -6022,7 +5961,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
+    <row r="18" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>62</v>
       </c>
@@ -6033,12 +5972,12 @@
         <v>566</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
+    <row r="19" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="24" customHeight="1">
+    <row r="20" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
         <v>560</v>
@@ -6054,12 +5993,9 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B20" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>AA15:AD15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AD20</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
